--- a/artfynd/A 67457-2019.xlsx
+++ b/artfynd/A 67457-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111783769</v>
+        <v>111783071</v>
       </c>
       <c r="B2" t="n">
-        <v>90665</v>
+        <v>90300</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1435</v>
+        <v>4745</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Bitter taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum fennicum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>505036.7939151306</v>
+        <v>505060.2648977584</v>
       </c>
       <c r="R2" t="n">
-        <v>7018819.987804689</v>
+        <v>7018787.191973396</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111782750</v>
+        <v>111782876</v>
       </c>
       <c r="B3" t="n">
-        <v>82949</v>
+        <v>90651</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5589</v>
+        <v>1968</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>505007.618534557</v>
+        <v>505022.9813479512</v>
       </c>
       <c r="R3" t="n">
-        <v>7018756.52538473</v>
+        <v>7018724.615566149</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -909,10 +909,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111783071</v>
+        <v>111782750</v>
       </c>
       <c r="B4" t="n">
-        <v>90300</v>
+        <v>82949</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -925,35 +925,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4745</v>
+        <v>5589</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Svarttjärnen (Svarttjärnen), Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>505060.2648977584</v>
+        <v>505007.618534557</v>
       </c>
       <c r="R4" t="n">
-        <v>7018787.191973396</v>
+        <v>7018756.52538473</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1004,6 +1006,7 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1022,10 +1025,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111784168</v>
+        <v>111783769</v>
       </c>
       <c r="B5" t="n">
-        <v>90709</v>
+        <v>90665</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1034,25 +1037,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5448</v>
+        <v>1435</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Bitter taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum fennicum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(P.Karst.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1063,10 +1066,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>504976.0557203053</v>
+        <v>505036.7939151306</v>
       </c>
       <c r="R5" t="n">
-        <v>7018779.864305317</v>
+        <v>7018819.987804689</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1093,7 +1096,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-08-30</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1103,7 +1106,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-08-30</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1135,10 +1138,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111782876</v>
+        <v>111784168</v>
       </c>
       <c r="B6" t="n">
-        <v>90651</v>
+        <v>90709</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1151,37 +1154,35 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1968</v>
+        <v>5448</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Svarttjärnen (Svarttjärnen), Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>505022.9813479512</v>
+        <v>504976.0557203053</v>
       </c>
       <c r="R6" t="n">
-        <v>7018724.615566149</v>
+        <v>7018779.864305317</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1208,7 +1209,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-08-30</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1218,7 +1219,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-08-30</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1232,7 +1233,6 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1251,10 +1251,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111814344</v>
+        <v>111814388</v>
       </c>
       <c r="B7" t="n">
-        <v>103288</v>
+        <v>78578</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1263,25 +1263,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>221144</v>
+        <v>6458</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1291,10 +1291,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>505070.3462143789</v>
+        <v>505182.7410700406</v>
       </c>
       <c r="R7" t="n">
-        <v>7018677.46330901</v>
+        <v>7018803.578552675</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1347,6 +1347,21 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
@@ -1367,10 +1382,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111814359</v>
+        <v>111814411</v>
       </c>
       <c r="B8" t="n">
-        <v>90300</v>
+        <v>96253</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1379,25 +1394,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4745</v>
+        <v>504</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1407,10 +1422,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>505073.4975346876</v>
+        <v>505014.8575873387</v>
       </c>
       <c r="R8" t="n">
-        <v>7018678.36784017</v>
+        <v>7018735.397438973</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1483,10 +1498,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111814432</v>
+        <v>111814351</v>
       </c>
       <c r="B9" t="n">
-        <v>95674</v>
+        <v>89845</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1495,25 +1510,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>222741</v>
+        <v>1209</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1523,10 +1538,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>505015.75484597</v>
+        <v>504984.8875472886</v>
       </c>
       <c r="R9" t="n">
-        <v>7018737.647699019</v>
+        <v>7018893.217038274</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1599,10 +1614,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111814348</v>
+        <v>111814344</v>
       </c>
       <c r="B10" t="n">
-        <v>96370</v>
+        <v>103288</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1615,21 +1630,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>219847</v>
+        <v>221144</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1639,10 +1654,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>504944.9568800884</v>
+        <v>505070.3462143789</v>
       </c>
       <c r="R10" t="n">
-        <v>7018794.658574538</v>
+        <v>7018677.46330901</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1715,10 +1730,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111814428</v>
+        <v>111814375</v>
       </c>
       <c r="B11" t="n">
-        <v>90666</v>
+        <v>96370</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1731,21 +1746,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4364</v>
+        <v>219847</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1755,10 +1770,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>504987.8220338543</v>
+        <v>504999.9977373667</v>
       </c>
       <c r="R11" t="n">
-        <v>7018743.451279385</v>
+        <v>7018733.575208749</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1831,10 +1846,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111814388</v>
+        <v>111814359</v>
       </c>
       <c r="B12" t="n">
-        <v>78578</v>
+        <v>90300</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1847,21 +1862,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6458</v>
+        <v>4745</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1871,10 +1886,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>505182.7410700406</v>
+        <v>505073.4975346876</v>
       </c>
       <c r="R12" t="n">
-        <v>7018803.578552675</v>
+        <v>7018678.36784017</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1927,21 +1942,6 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
@@ -1962,10 +1962,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111814415</v>
+        <v>111814434</v>
       </c>
       <c r="B13" t="n">
-        <v>56543</v>
+        <v>96253</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1974,25 +1974,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>103021</v>
+        <v>504</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2002,10 +2002,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>505100.2035408606</v>
+        <v>505012.6056710624</v>
       </c>
       <c r="R13" t="n">
-        <v>7018878.55609256</v>
+        <v>7018735.393927739</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2078,10 +2078,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111814430</v>
+        <v>111814402</v>
       </c>
       <c r="B14" t="n">
-        <v>103288</v>
+        <v>90651</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2090,25 +2090,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>221144</v>
+        <v>1968</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2118,10 +2118,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>504987.8220338543</v>
+        <v>505200.3682009591</v>
       </c>
       <c r="R14" t="n">
-        <v>7018743.451279385</v>
+        <v>7018764.927175661</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2194,10 +2194,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111814369</v>
+        <v>111814432</v>
       </c>
       <c r="B15" t="n">
-        <v>96265</v>
+        <v>95674</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2210,21 +2210,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>219790</v>
+        <v>222741</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2234,10 +2234,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>504944.0561301867</v>
+        <v>505015.75484597</v>
       </c>
       <c r="R15" t="n">
-        <v>7018794.657189432</v>
+        <v>7018737.647699019</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2310,10 +2310,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111814375</v>
+        <v>111814417</v>
       </c>
       <c r="B16" t="n">
-        <v>96370</v>
+        <v>103288</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2326,21 +2326,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>219847</v>
+        <v>221144</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2350,10 +2350,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>504999.9977373667</v>
+        <v>505110.448201828</v>
       </c>
       <c r="R16" t="n">
-        <v>7018733.575208749</v>
+        <v>7018666.73204405</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2426,10 +2426,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111814417</v>
+        <v>111814415</v>
       </c>
       <c r="B17" t="n">
-        <v>103288</v>
+        <v>56543</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2438,25 +2438,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>221144</v>
+        <v>103021</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2466,10 +2466,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>505110.448201828</v>
+        <v>505100.2035408606</v>
       </c>
       <c r="R17" t="n">
-        <v>7018666.73204405</v>
+        <v>7018878.55609256</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2542,10 +2542,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111814351</v>
+        <v>111814356</v>
       </c>
       <c r="B18" t="n">
-        <v>89845</v>
+        <v>90678</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2554,25 +2554,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1209</v>
+        <v>4366</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2582,10 +2582,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>504984.8875472886</v>
+        <v>505204.4099656619</v>
       </c>
       <c r="R18" t="n">
-        <v>7018893.217038274</v>
+        <v>7018772.129998797</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2658,10 +2658,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111814356</v>
+        <v>111814430</v>
       </c>
       <c r="B19" t="n">
-        <v>90678</v>
+        <v>103288</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2674,21 +2674,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4366</v>
+        <v>221144</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2698,10 +2698,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>505204.4099656619</v>
+        <v>504987.8220338543</v>
       </c>
       <c r="R19" t="n">
-        <v>7018772.129998797</v>
+        <v>7018743.451279385</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2774,10 +2774,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111814434</v>
+        <v>111814369</v>
       </c>
       <c r="B20" t="n">
-        <v>96253</v>
+        <v>96265</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2790,21 +2790,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>504</v>
+        <v>219790</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2814,10 +2814,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>505012.6056710624</v>
+        <v>504944.0561301867</v>
       </c>
       <c r="R20" t="n">
-        <v>7018735.393927739</v>
+        <v>7018794.657189432</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3006,10 +3006,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111814411</v>
+        <v>111814348</v>
       </c>
       <c r="B22" t="n">
-        <v>96253</v>
+        <v>96370</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3022,21 +3022,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>504</v>
+        <v>219847</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3046,10 +3046,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>505014.8575873387</v>
+        <v>504944.9568800884</v>
       </c>
       <c r="R22" t="n">
-        <v>7018735.397438973</v>
+        <v>7018794.658574538</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3122,10 +3122,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111814402</v>
+        <v>111814362</v>
       </c>
       <c r="B23" t="n">
-        <v>90651</v>
+        <v>103288</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3134,25 +3134,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1968</v>
+        <v>221144</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3162,10 +3162,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>505200.3682009591</v>
+        <v>504958.3523041067</v>
       </c>
       <c r="R23" t="n">
-        <v>7018764.927175661</v>
+        <v>7018869.788911887</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3238,10 +3238,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111814362</v>
+        <v>111814428</v>
       </c>
       <c r="B24" t="n">
-        <v>103288</v>
+        <v>90666</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3254,21 +3254,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>221144</v>
+        <v>4364</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3278,10 +3278,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>504958.3523041067</v>
+        <v>504987.8220338543</v>
       </c>
       <c r="R24" t="n">
-        <v>7018869.788911887</v>
+        <v>7018743.451279385</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>

--- a/artfynd/A 67457-2019.xlsx
+++ b/artfynd/A 67457-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111783071</v>
+        <v>111783769</v>
       </c>
       <c r="B2" t="n">
-        <v>90300</v>
+        <v>90665</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4745</v>
+        <v>1435</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Bitter taggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum fennicum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(P.Karst.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>505060.2648977584</v>
+        <v>505036.7939151306</v>
       </c>
       <c r="R2" t="n">
-        <v>7018787.191973396</v>
+        <v>7018819.987804689</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111782876</v>
+        <v>111784168</v>
       </c>
       <c r="B3" t="n">
-        <v>90651</v>
+        <v>90709</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,37 +809,35 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1968</v>
+        <v>5448</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Svarttjärnen (Svarttjärnen), Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>505022.9813479512</v>
+        <v>504976.0557203053</v>
       </c>
       <c r="R3" t="n">
-        <v>7018724.615566149</v>
+        <v>7018779.864305317</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -866,7 +864,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-08-30</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -876,7 +874,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-08-30</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -890,7 +888,6 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -1025,10 +1022,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111783769</v>
+        <v>111783071</v>
       </c>
       <c r="B5" t="n">
-        <v>90665</v>
+        <v>90300</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1037,25 +1034,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1435</v>
+        <v>4745</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Bitter taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum fennicum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1066,10 +1063,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>505036.7939151306</v>
+        <v>505060.2648977584</v>
       </c>
       <c r="R5" t="n">
-        <v>7018819.987804689</v>
+        <v>7018787.191973396</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1138,10 +1135,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111784168</v>
+        <v>111782876</v>
       </c>
       <c r="B6" t="n">
-        <v>90709</v>
+        <v>90651</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1154,35 +1151,37 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5448</v>
+        <v>1968</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Svarttjärnen (Svarttjärnen), Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>504976.0557203053</v>
+        <v>505022.9813479512</v>
       </c>
       <c r="R6" t="n">
-        <v>7018779.864305317</v>
+        <v>7018724.615566149</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1209,7 +1208,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-08-30</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1219,7 +1218,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-08-30</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1233,6 +1232,7 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1251,10 +1251,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111814388</v>
+        <v>111814402</v>
       </c>
       <c r="B7" t="n">
-        <v>78578</v>
+        <v>90651</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1267,21 +1267,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6458</v>
+        <v>1968</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1291,10 +1291,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>505182.7410700406</v>
+        <v>505200.3682009591</v>
       </c>
       <c r="R7" t="n">
-        <v>7018803.578552675</v>
+        <v>7018764.927175661</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1347,21 +1347,6 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
@@ -1382,10 +1367,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111814411</v>
+        <v>111814395</v>
       </c>
       <c r="B8" t="n">
-        <v>96253</v>
+        <v>103288</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1398,21 +1383,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>504</v>
+        <v>221144</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1422,10 +1407,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>505014.8575873387</v>
+        <v>504987.8220338543</v>
       </c>
       <c r="R8" t="n">
-        <v>7018735.397438973</v>
+        <v>7018743.451279385</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1498,10 +1483,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111814351</v>
+        <v>111814375</v>
       </c>
       <c r="B9" t="n">
-        <v>89845</v>
+        <v>96370</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1510,25 +1495,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1209</v>
+        <v>219847</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1538,10 +1523,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>504984.8875472886</v>
+        <v>504999.9977373667</v>
       </c>
       <c r="R9" t="n">
-        <v>7018893.217038274</v>
+        <v>7018733.575208749</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1614,10 +1599,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111814344</v>
+        <v>111814348</v>
       </c>
       <c r="B10" t="n">
-        <v>103288</v>
+        <v>96370</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1630,21 +1615,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>221144</v>
+        <v>219847</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1654,10 +1639,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>505070.3462143789</v>
+        <v>504944.9568800884</v>
       </c>
       <c r="R10" t="n">
-        <v>7018677.46330901</v>
+        <v>7018794.658574538</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1730,10 +1715,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111814375</v>
+        <v>111814417</v>
       </c>
       <c r="B11" t="n">
-        <v>96370</v>
+        <v>103288</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1746,21 +1731,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>219847</v>
+        <v>221144</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1770,10 +1755,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>504999.9977373667</v>
+        <v>505110.448201828</v>
       </c>
       <c r="R11" t="n">
-        <v>7018733.575208749</v>
+        <v>7018666.73204405</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1846,10 +1831,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111814359</v>
+        <v>111814432</v>
       </c>
       <c r="B12" t="n">
-        <v>90300</v>
+        <v>95674</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1858,25 +1843,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4745</v>
+        <v>222741</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1886,10 +1871,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>505073.4975346876</v>
+        <v>505015.75484597</v>
       </c>
       <c r="R12" t="n">
-        <v>7018678.36784017</v>
+        <v>7018737.647699019</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1962,10 +1947,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111814434</v>
+        <v>111814359</v>
       </c>
       <c r="B13" t="n">
-        <v>96253</v>
+        <v>90300</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1974,25 +1959,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>504</v>
+        <v>4745</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2002,10 +1987,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>505012.6056710624</v>
+        <v>505073.4975346876</v>
       </c>
       <c r="R13" t="n">
-        <v>7018735.393927739</v>
+        <v>7018678.36784017</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2078,10 +2063,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111814402</v>
+        <v>111814434</v>
       </c>
       <c r="B14" t="n">
-        <v>90651</v>
+        <v>96253</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2090,25 +2075,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1968</v>
+        <v>504</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2118,10 +2103,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>505200.3682009591</v>
+        <v>505012.6056710624</v>
       </c>
       <c r="R14" t="n">
-        <v>7018764.927175661</v>
+        <v>7018735.393927739</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2194,10 +2179,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111814432</v>
+        <v>111814351</v>
       </c>
       <c r="B15" t="n">
-        <v>95674</v>
+        <v>89845</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2206,25 +2191,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>222741</v>
+        <v>1209</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2234,10 +2219,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>505015.75484597</v>
+        <v>504984.8875472886</v>
       </c>
       <c r="R15" t="n">
-        <v>7018737.647699019</v>
+        <v>7018893.217038274</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2310,10 +2295,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111814417</v>
+        <v>111814356</v>
       </c>
       <c r="B16" t="n">
-        <v>103288</v>
+        <v>90678</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2326,21 +2311,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>221144</v>
+        <v>4366</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2350,10 +2335,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>505110.448201828</v>
+        <v>505204.4099656619</v>
       </c>
       <c r="R16" t="n">
-        <v>7018666.73204405</v>
+        <v>7018772.129998797</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2426,10 +2411,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111814415</v>
+        <v>111814344</v>
       </c>
       <c r="B17" t="n">
-        <v>56543</v>
+        <v>103288</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2438,25 +2423,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>103021</v>
+        <v>221144</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2466,10 +2451,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>505100.2035408606</v>
+        <v>505070.3462143789</v>
       </c>
       <c r="R17" t="n">
-        <v>7018878.55609256</v>
+        <v>7018677.46330901</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2542,10 +2527,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111814356</v>
+        <v>111814428</v>
       </c>
       <c r="B18" t="n">
-        <v>90678</v>
+        <v>90666</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2558,21 +2543,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4366</v>
+        <v>4364</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2582,10 +2567,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>505204.4099656619</v>
+        <v>504987.8220338543</v>
       </c>
       <c r="R18" t="n">
-        <v>7018772.129998797</v>
+        <v>7018743.451279385</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2658,10 +2643,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111814430</v>
+        <v>111814350</v>
       </c>
       <c r="B19" t="n">
-        <v>103288</v>
+        <v>89401</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2670,25 +2655,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>221144</v>
+        <v>1108</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2698,10 +2683,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>504987.8220338543</v>
+        <v>504984.8875472886</v>
       </c>
       <c r="R19" t="n">
-        <v>7018743.451279385</v>
+        <v>7018893.217038274</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2890,10 +2875,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111814350</v>
+        <v>111814362</v>
       </c>
       <c r="B21" t="n">
-        <v>89401</v>
+        <v>103288</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2902,25 +2887,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1108</v>
+        <v>221144</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2930,10 +2915,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>504984.8875472886</v>
+        <v>504958.3523041067</v>
       </c>
       <c r="R21" t="n">
-        <v>7018893.217038274</v>
+        <v>7018869.788911887</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3006,10 +2991,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111814348</v>
+        <v>111814411</v>
       </c>
       <c r="B22" t="n">
-        <v>96370</v>
+        <v>96253</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3022,21 +3007,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>219847</v>
+        <v>504</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3046,10 +3031,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>504944.9568800884</v>
+        <v>505014.8575873387</v>
       </c>
       <c r="R22" t="n">
-        <v>7018794.658574538</v>
+        <v>7018735.397438973</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3122,10 +3107,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111814362</v>
+        <v>111814388</v>
       </c>
       <c r="B23" t="n">
-        <v>103288</v>
+        <v>78578</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3134,25 +3119,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>221144</v>
+        <v>6458</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3162,10 +3147,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>504958.3523041067</v>
+        <v>505182.7410700406</v>
       </c>
       <c r="R23" t="n">
-        <v>7018869.788911887</v>
+        <v>7018803.578552675</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3218,6 +3203,21 @@
       </c>
       <c r="AG23" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
@@ -3238,10 +3238,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111814428</v>
+        <v>111814415</v>
       </c>
       <c r="B24" t="n">
-        <v>90666</v>
+        <v>56543</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3250,25 +3250,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4364</v>
+        <v>103021</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3278,10 +3278,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>504987.8220338543</v>
+        <v>505100.2035408606</v>
       </c>
       <c r="R24" t="n">
-        <v>7018743.451279385</v>
+        <v>7018878.55609256</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>

--- a/artfynd/A 67457-2019.xlsx
+++ b/artfynd/A 67457-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111783769</v>
+        <v>111782876</v>
       </c>
       <c r="B2" t="n">
-        <v>90665</v>
+        <v>90651</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,39 +692,41 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1435</v>
+        <v>1968</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Bitter taggsvamp</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum fennicum</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Svarttjärnen (Svarttjärnen), Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>505036.7939151306</v>
+        <v>505022.9813479512</v>
       </c>
       <c r="R2" t="n">
-        <v>7018819.987804689</v>
+        <v>7018724.615566149</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -775,6 +777,7 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -793,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111784168</v>
+        <v>111782750</v>
       </c>
       <c r="B3" t="n">
-        <v>90709</v>
+        <v>82949</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,35 +812,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5448</v>
+        <v>5589</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Svarttjärnen (Svarttjärnen), Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>504976.0557203053</v>
+        <v>505007.618534557</v>
       </c>
       <c r="R3" t="n">
-        <v>7018779.864305317</v>
+        <v>7018756.52538473</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -864,7 +869,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-08-30</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -874,7 +879,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-08-30</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -888,6 +893,7 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -906,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111782750</v>
+        <v>111784168</v>
       </c>
       <c r="B4" t="n">
-        <v>82949</v>
+        <v>90709</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,37 +928,35 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5589</v>
+        <v>5448</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Svarttjärnen (Svarttjärnen), Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>505007.618534557</v>
+        <v>504976.0557203053</v>
       </c>
       <c r="R4" t="n">
-        <v>7018756.52538473</v>
+        <v>7018779.864305317</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -979,7 +983,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2023-08-30</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -989,7 +993,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2023-08-30</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1003,7 +1007,6 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1022,10 +1025,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111783071</v>
+        <v>111783769</v>
       </c>
       <c r="B5" t="n">
-        <v>90300</v>
+        <v>90665</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1034,25 +1037,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4745</v>
+        <v>1435</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Bitter taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum fennicum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(P.Karst.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1063,10 +1066,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>505060.2648977584</v>
+        <v>505036.7939151306</v>
       </c>
       <c r="R5" t="n">
-        <v>7018787.191973396</v>
+        <v>7018819.987804689</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1135,10 +1138,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111782876</v>
+        <v>111783071</v>
       </c>
       <c r="B6" t="n">
-        <v>90651</v>
+        <v>90300</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1151,37 +1154,35 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1968</v>
+        <v>4745</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Svarttjärnen (Svarttjärnen), Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>505022.9813479512</v>
+        <v>505060.2648977584</v>
       </c>
       <c r="R6" t="n">
-        <v>7018724.615566149</v>
+        <v>7018787.191973396</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1232,7 +1233,6 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1251,10 +1251,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111814402</v>
+        <v>111814362</v>
       </c>
       <c r="B7" t="n">
-        <v>90651</v>
+        <v>103288</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1263,25 +1263,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1968</v>
+        <v>221144</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1291,10 +1291,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>505200.3682009591</v>
+        <v>504958.3523041067</v>
       </c>
       <c r="R7" t="n">
-        <v>7018764.927175661</v>
+        <v>7018869.788911887</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1367,10 +1367,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111814395</v>
+        <v>111814356</v>
       </c>
       <c r="B8" t="n">
-        <v>103288</v>
+        <v>90678</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1383,21 +1383,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>221144</v>
+        <v>4366</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1407,10 +1407,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>504987.8220338543</v>
+        <v>505204.4099656619</v>
       </c>
       <c r="R8" t="n">
-        <v>7018743.451279385</v>
+        <v>7018772.129998797</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1483,10 +1483,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111814375</v>
+        <v>111814430</v>
       </c>
       <c r="B9" t="n">
-        <v>96370</v>
+        <v>103288</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1499,21 +1499,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>219847</v>
+        <v>221144</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>504999.9977373667</v>
+        <v>504987.8220338543</v>
       </c>
       <c r="R9" t="n">
-        <v>7018733.575208749</v>
+        <v>7018743.451279385</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1599,10 +1599,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111814348</v>
+        <v>111814369</v>
       </c>
       <c r="B10" t="n">
-        <v>96370</v>
+        <v>96265</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1615,21 +1615,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>219847</v>
+        <v>219790</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>504944.9568800884</v>
+        <v>504944.0561301867</v>
       </c>
       <c r="R10" t="n">
-        <v>7018794.658574538</v>
+        <v>7018794.657189432</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111814417</v>
+        <v>111814359</v>
       </c>
       <c r="B11" t="n">
-        <v>103288</v>
+        <v>90300</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1727,25 +1727,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>221144</v>
+        <v>4745</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1755,10 +1755,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>505110.448201828</v>
+        <v>505073.4975346876</v>
       </c>
       <c r="R11" t="n">
-        <v>7018666.73204405</v>
+        <v>7018678.36784017</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1831,10 +1831,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111814432</v>
+        <v>111814402</v>
       </c>
       <c r="B12" t="n">
-        <v>95674</v>
+        <v>90651</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1843,25 +1843,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>222741</v>
+        <v>1968</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1871,10 +1871,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>505015.75484597</v>
+        <v>505200.3682009591</v>
       </c>
       <c r="R12" t="n">
-        <v>7018737.647699019</v>
+        <v>7018764.927175661</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1947,10 +1947,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111814359</v>
+        <v>111814411</v>
       </c>
       <c r="B13" t="n">
-        <v>90300</v>
+        <v>96253</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1959,25 +1959,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4745</v>
+        <v>504</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1987,10 +1987,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>505073.4975346876</v>
+        <v>505014.8575873387</v>
       </c>
       <c r="R13" t="n">
-        <v>7018678.36784017</v>
+        <v>7018735.397438973</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2063,10 +2063,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111814434</v>
+        <v>111814348</v>
       </c>
       <c r="B14" t="n">
-        <v>96253</v>
+        <v>96370</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2079,21 +2079,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>504</v>
+        <v>219847</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2103,10 +2103,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>505012.6056710624</v>
+        <v>504944.9568800884</v>
       </c>
       <c r="R14" t="n">
-        <v>7018735.393927739</v>
+        <v>7018794.658574538</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2179,10 +2179,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111814351</v>
+        <v>111814375</v>
       </c>
       <c r="B15" t="n">
-        <v>89845</v>
+        <v>96370</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2191,25 +2191,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1209</v>
+        <v>219847</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2219,10 +2219,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>504984.8875472886</v>
+        <v>504999.9977373667</v>
       </c>
       <c r="R15" t="n">
-        <v>7018893.217038274</v>
+        <v>7018733.575208749</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2295,10 +2295,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111814356</v>
+        <v>111814388</v>
       </c>
       <c r="B16" t="n">
-        <v>90678</v>
+        <v>78578</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2307,25 +2307,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4366</v>
+        <v>6458</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2335,10 +2335,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>505204.4099656619</v>
+        <v>505182.7410700406</v>
       </c>
       <c r="R16" t="n">
-        <v>7018772.129998797</v>
+        <v>7018803.578552675</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2391,6 +2391,21 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
@@ -2411,7 +2426,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111814344</v>
+        <v>111814417</v>
       </c>
       <c r="B17" t="n">
         <v>103288</v>
@@ -2451,10 +2466,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>505070.3462143789</v>
+        <v>505110.448201828</v>
       </c>
       <c r="R17" t="n">
-        <v>7018677.46330901</v>
+        <v>7018666.73204405</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2527,10 +2542,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111814428</v>
+        <v>111814415</v>
       </c>
       <c r="B18" t="n">
-        <v>90666</v>
+        <v>56543</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2539,25 +2554,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4364</v>
+        <v>103021</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2567,10 +2582,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>504987.8220338543</v>
+        <v>505100.2035408606</v>
       </c>
       <c r="R18" t="n">
-        <v>7018743.451279385</v>
+        <v>7018878.55609256</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2643,10 +2658,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111814350</v>
+        <v>111814351</v>
       </c>
       <c r="B19" t="n">
-        <v>89401</v>
+        <v>89845</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2655,25 +2670,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1108</v>
+        <v>1209</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2759,10 +2774,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111814369</v>
+        <v>111814344</v>
       </c>
       <c r="B20" t="n">
-        <v>96265</v>
+        <v>103288</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2775,21 +2790,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>219790</v>
+        <v>221144</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2799,10 +2814,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>504944.0561301867</v>
+        <v>505070.3462143789</v>
       </c>
       <c r="R20" t="n">
-        <v>7018794.657189432</v>
+        <v>7018677.46330901</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2875,10 +2890,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111814362</v>
+        <v>111814428</v>
       </c>
       <c r="B21" t="n">
-        <v>103288</v>
+        <v>90666</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2891,21 +2906,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>221144</v>
+        <v>4364</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2915,10 +2930,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>504958.3523041067</v>
+        <v>504987.8220338543</v>
       </c>
       <c r="R21" t="n">
-        <v>7018869.788911887</v>
+        <v>7018743.451279385</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2991,7 +3006,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111814411</v>
+        <v>111814434</v>
       </c>
       <c r="B22" t="n">
         <v>96253</v>
@@ -3031,10 +3046,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>505014.8575873387</v>
+        <v>505012.6056710624</v>
       </c>
       <c r="R22" t="n">
-        <v>7018735.397438973</v>
+        <v>7018735.393927739</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3107,10 +3122,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111814388</v>
+        <v>111814350</v>
       </c>
       <c r="B23" t="n">
-        <v>78578</v>
+        <v>89401</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3123,21 +3138,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6458</v>
+        <v>1108</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3147,10 +3162,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>505182.7410700406</v>
+        <v>504984.8875472886</v>
       </c>
       <c r="R23" t="n">
-        <v>7018803.578552675</v>
+        <v>7018893.217038274</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3203,21 +3218,6 @@
       </c>
       <c r="AG23" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ23" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK23" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
@@ -3238,10 +3238,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111814415</v>
+        <v>111814432</v>
       </c>
       <c r="B24" t="n">
-        <v>56543</v>
+        <v>95674</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3250,25 +3250,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>103021</v>
+        <v>222741</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3278,10 +3278,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>505100.2035408606</v>
+        <v>505015.75484597</v>
       </c>
       <c r="R24" t="n">
-        <v>7018878.55609256</v>
+        <v>7018737.647699019</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>

--- a/artfynd/A 67457-2019.xlsx
+++ b/artfynd/A 67457-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111782876</v>
+        <v>111784168</v>
       </c>
       <c r="B2" t="n">
-        <v>90651</v>
+        <v>90709</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,37 +696,35 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1968</v>
+        <v>5448</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Svarttjärnen (Svarttjärnen), Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>505022.9813479512</v>
+        <v>504976.0557203053</v>
       </c>
       <c r="R2" t="n">
-        <v>7018724.615566149</v>
+        <v>7018779.864305317</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -753,7 +751,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2023-08-30</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -763,7 +761,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2023-08-30</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -777,7 +775,6 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -796,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111782750</v>
+        <v>111783071</v>
       </c>
       <c r="B3" t="n">
-        <v>82949</v>
+        <v>90300</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,37 +809,35 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5589</v>
+        <v>4745</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Svarttjärnen (Svarttjärnen), Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>505007.618534557</v>
+        <v>505060.2648977584</v>
       </c>
       <c r="R3" t="n">
-        <v>7018756.52538473</v>
+        <v>7018787.191973396</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -893,7 +888,6 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -912,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111784168</v>
+        <v>111782876</v>
       </c>
       <c r="B4" t="n">
-        <v>90709</v>
+        <v>90651</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -928,35 +922,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5448</v>
+        <v>1968</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Svarttjärnen (Svarttjärnen), Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>504976.0557203053</v>
+        <v>505022.9813479512</v>
       </c>
       <c r="R4" t="n">
-        <v>7018779.864305317</v>
+        <v>7018724.615566149</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -983,7 +979,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-08-30</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -993,7 +989,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-08-30</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1007,6 +1003,7 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1025,10 +1022,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111783769</v>
+        <v>111782750</v>
       </c>
       <c r="B5" t="n">
-        <v>90665</v>
+        <v>82949</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1037,39 +1034,41 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1435</v>
+        <v>5589</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Bitter taggsvamp</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum fennicum</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Svarttjärnen (Svarttjärnen), Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>505036.7939151306</v>
+        <v>505007.618534557</v>
       </c>
       <c r="R5" t="n">
-        <v>7018819.987804689</v>
+        <v>7018756.52538473</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1120,6 +1119,7 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1138,10 +1138,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111783071</v>
+        <v>111783769</v>
       </c>
       <c r="B6" t="n">
-        <v>90300</v>
+        <v>90665</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1150,25 +1150,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4745</v>
+        <v>1435</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Bitter taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum fennicum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(P.Karst.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1179,10 +1179,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>505060.2648977584</v>
+        <v>505036.7939151306</v>
       </c>
       <c r="R6" t="n">
-        <v>7018787.191973396</v>
+        <v>7018819.987804689</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1251,10 +1251,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111814362</v>
+        <v>111814359</v>
       </c>
       <c r="B7" t="n">
-        <v>103288</v>
+        <v>90300</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1263,25 +1263,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>221144</v>
+        <v>4745</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1291,10 +1291,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>504958.3523041067</v>
+        <v>505073.4975346876</v>
       </c>
       <c r="R7" t="n">
-        <v>7018869.788911887</v>
+        <v>7018678.36784017</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1367,10 +1367,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111814356</v>
+        <v>111814432</v>
       </c>
       <c r="B8" t="n">
-        <v>90678</v>
+        <v>95674</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1383,21 +1383,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4366</v>
+        <v>222741</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1407,10 +1407,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>505204.4099656619</v>
+        <v>505015.75484597</v>
       </c>
       <c r="R8" t="n">
-        <v>7018772.129998797</v>
+        <v>7018737.647699019</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1483,10 +1483,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111814430</v>
+        <v>111814411</v>
       </c>
       <c r="B9" t="n">
-        <v>103288</v>
+        <v>96253</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1499,21 +1499,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>221144</v>
+        <v>504</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>504987.8220338543</v>
+        <v>505014.8575873387</v>
       </c>
       <c r="R9" t="n">
-        <v>7018743.451279385</v>
+        <v>7018735.397438973</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1599,10 +1599,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111814369</v>
+        <v>111814375</v>
       </c>
       <c r="B10" t="n">
-        <v>96265</v>
+        <v>96370</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1615,21 +1615,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>219790</v>
+        <v>219847</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>504944.0561301867</v>
+        <v>504999.9977373667</v>
       </c>
       <c r="R10" t="n">
-        <v>7018794.657189432</v>
+        <v>7018733.575208749</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111814359</v>
+        <v>111814428</v>
       </c>
       <c r="B11" t="n">
-        <v>90300</v>
+        <v>90666</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1727,25 +1727,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4745</v>
+        <v>4364</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1755,10 +1755,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>505073.4975346876</v>
+        <v>504987.8220338543</v>
       </c>
       <c r="R11" t="n">
-        <v>7018678.36784017</v>
+        <v>7018743.451279385</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1831,10 +1831,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111814402</v>
+        <v>111814415</v>
       </c>
       <c r="B12" t="n">
-        <v>90651</v>
+        <v>56543</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1847,21 +1847,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1968</v>
+        <v>103021</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1871,10 +1871,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>505200.3682009591</v>
+        <v>505100.2035408606</v>
       </c>
       <c r="R12" t="n">
-        <v>7018764.927175661</v>
+        <v>7018878.55609256</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1947,10 +1947,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111814411</v>
+        <v>111814356</v>
       </c>
       <c r="B13" t="n">
-        <v>96253</v>
+        <v>90678</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1963,21 +1963,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>504</v>
+        <v>4366</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1987,10 +1987,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>505014.8575873387</v>
+        <v>505204.4099656619</v>
       </c>
       <c r="R13" t="n">
-        <v>7018735.397438973</v>
+        <v>7018772.129998797</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2063,10 +2063,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111814348</v>
+        <v>111814344</v>
       </c>
       <c r="B14" t="n">
-        <v>96370</v>
+        <v>103288</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2079,21 +2079,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>219847</v>
+        <v>221144</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2103,10 +2103,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>504944.9568800884</v>
+        <v>505070.3462143789</v>
       </c>
       <c r="R14" t="n">
-        <v>7018794.658574538</v>
+        <v>7018677.46330901</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2179,10 +2179,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111814375</v>
+        <v>111814434</v>
       </c>
       <c r="B15" t="n">
-        <v>96370</v>
+        <v>96253</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2195,21 +2195,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>219847</v>
+        <v>504</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2219,10 +2219,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>504999.9977373667</v>
+        <v>505012.6056710624</v>
       </c>
       <c r="R15" t="n">
-        <v>7018733.575208749</v>
+        <v>7018735.393927739</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2295,10 +2295,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111814388</v>
+        <v>111814362</v>
       </c>
       <c r="B16" t="n">
-        <v>78578</v>
+        <v>103288</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2307,25 +2307,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6458</v>
+        <v>221144</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2335,10 +2335,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>505182.7410700406</v>
+        <v>504958.3523041067</v>
       </c>
       <c r="R16" t="n">
-        <v>7018803.578552675</v>
+        <v>7018869.788911887</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2391,21 +2391,6 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
@@ -2426,10 +2411,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111814417</v>
+        <v>111814369</v>
       </c>
       <c r="B17" t="n">
-        <v>103288</v>
+        <v>96265</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2442,21 +2427,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>221144</v>
+        <v>219790</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2466,10 +2451,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>505110.448201828</v>
+        <v>504944.0561301867</v>
       </c>
       <c r="R17" t="n">
-        <v>7018666.73204405</v>
+        <v>7018794.657189432</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2542,10 +2527,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111814415</v>
+        <v>111814430</v>
       </c>
       <c r="B18" t="n">
-        <v>56543</v>
+        <v>103288</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2554,25 +2539,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>103021</v>
+        <v>221144</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2582,10 +2567,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>505100.2035408606</v>
+        <v>504987.8220338543</v>
       </c>
       <c r="R18" t="n">
-        <v>7018878.55609256</v>
+        <v>7018743.451279385</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2658,10 +2643,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111814351</v>
+        <v>111814348</v>
       </c>
       <c r="B19" t="n">
-        <v>89845</v>
+        <v>96370</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2670,25 +2655,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1209</v>
+        <v>219847</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2698,10 +2683,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>504984.8875472886</v>
+        <v>504944.9568800884</v>
       </c>
       <c r="R19" t="n">
-        <v>7018893.217038274</v>
+        <v>7018794.658574538</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2774,10 +2759,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111814344</v>
+        <v>111814350</v>
       </c>
       <c r="B20" t="n">
-        <v>103288</v>
+        <v>89401</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2786,25 +2771,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>221144</v>
+        <v>1108</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2814,10 +2799,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>505070.3462143789</v>
+        <v>504984.8875472886</v>
       </c>
       <c r="R20" t="n">
-        <v>7018677.46330901</v>
+        <v>7018893.217038274</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2890,10 +2875,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111814428</v>
+        <v>111814351</v>
       </c>
       <c r="B21" t="n">
-        <v>90666</v>
+        <v>89845</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2902,25 +2887,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4364</v>
+        <v>1209</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2930,10 +2915,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>504987.8220338543</v>
+        <v>504984.8875472886</v>
       </c>
       <c r="R21" t="n">
-        <v>7018743.451279385</v>
+        <v>7018893.217038274</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3006,10 +2991,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111814434</v>
+        <v>111814402</v>
       </c>
       <c r="B22" t="n">
-        <v>96253</v>
+        <v>90651</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3018,25 +3003,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>504</v>
+        <v>1968</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3046,10 +3031,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>505012.6056710624</v>
+        <v>505200.3682009591</v>
       </c>
       <c r="R22" t="n">
-        <v>7018735.393927739</v>
+        <v>7018764.927175661</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3122,10 +3107,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111814350</v>
+        <v>111814417</v>
       </c>
       <c r="B23" t="n">
-        <v>89401</v>
+        <v>103288</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3134,25 +3119,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1108</v>
+        <v>221144</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3162,10 +3147,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>504984.8875472886</v>
+        <v>505110.448201828</v>
       </c>
       <c r="R23" t="n">
-        <v>7018893.217038274</v>
+        <v>7018666.73204405</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3238,10 +3223,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111814432</v>
+        <v>111814388</v>
       </c>
       <c r="B24" t="n">
-        <v>95674</v>
+        <v>78578</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3250,25 +3235,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>222741</v>
+        <v>6458</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3278,10 +3263,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>505015.75484597</v>
+        <v>505182.7410700406</v>
       </c>
       <c r="R24" t="n">
-        <v>7018737.647699019</v>
+        <v>7018803.578552675</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3334,6 +3319,21 @@
       </c>
       <c r="AG24" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">

--- a/artfynd/A 67457-2019.xlsx
+++ b/artfynd/A 67457-2019.xlsx
@@ -2643,10 +2643,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111814348</v>
+        <v>111814350</v>
       </c>
       <c r="B19" t="n">
-        <v>96370</v>
+        <v>89401</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2655,25 +2655,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>219847</v>
+        <v>1108</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>504944.9568800884</v>
+        <v>504984.8875472886</v>
       </c>
       <c r="R19" t="n">
-        <v>7018794.658574538</v>
+        <v>7018893.217038274</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2759,10 +2759,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111814350</v>
+        <v>111814348</v>
       </c>
       <c r="B20" t="n">
-        <v>89401</v>
+        <v>96370</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2771,25 +2771,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1108</v>
+        <v>219847</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2799,10 +2799,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>504984.8875472886</v>
+        <v>504944.9568800884</v>
       </c>
       <c r="R20" t="n">
-        <v>7018893.217038274</v>
+        <v>7018794.658574538</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>

--- a/artfynd/A 67457-2019.xlsx
+++ b/artfynd/A 67457-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111784168</v>
+        <v>111783769</v>
       </c>
       <c r="B2" t="n">
-        <v>90709</v>
+        <v>90665</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5448</v>
+        <v>1435</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Bitter taggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum fennicum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(P.Karst.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>504976.0557203053</v>
+        <v>505036.7939151306</v>
       </c>
       <c r="R2" t="n">
-        <v>7018779.864305317</v>
+        <v>7018819.987804689</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -751,7 +751,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-08-30</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-08-30</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111782876</v>
+        <v>111782750</v>
       </c>
       <c r="B4" t="n">
-        <v>90651</v>
+        <v>82949</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,21 +922,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1968</v>
+        <v>5589</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>505022.9813479512</v>
+        <v>505007.618534557</v>
       </c>
       <c r="R4" t="n">
-        <v>7018724.615566149</v>
+        <v>7018756.52538473</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1022,10 +1022,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111782750</v>
+        <v>111784168</v>
       </c>
       <c r="B5" t="n">
-        <v>82949</v>
+        <v>90709</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1038,37 +1038,35 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5589</v>
+        <v>5448</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Svarttjärnen (Svarttjärnen), Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>505007.618534557</v>
+        <v>504976.0557203053</v>
       </c>
       <c r="R5" t="n">
-        <v>7018756.52538473</v>
+        <v>7018779.864305317</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1095,7 +1093,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2023-08-30</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1105,7 +1103,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2023-08-30</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1119,7 +1117,6 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1138,10 +1135,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111783769</v>
+        <v>111782876</v>
       </c>
       <c r="B6" t="n">
-        <v>90665</v>
+        <v>90651</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1150,39 +1147,41 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1435</v>
+        <v>1968</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bitter taggsvamp</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum fennicum</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Svarttjärnen (Svarttjärnen), Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>505036.7939151306</v>
+        <v>505022.9813479512</v>
       </c>
       <c r="R6" t="n">
-        <v>7018819.987804689</v>
+        <v>7018724.615566149</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1233,6 +1232,7 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1251,10 +1251,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111814359</v>
+        <v>111814375</v>
       </c>
       <c r="B7" t="n">
-        <v>90300</v>
+        <v>96370</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1263,25 +1263,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4745</v>
+        <v>219847</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1291,10 +1291,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>505073.4975346876</v>
+        <v>504999.9977373667</v>
       </c>
       <c r="R7" t="n">
-        <v>7018678.36784017</v>
+        <v>7018733.575208749</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1367,10 +1367,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111814432</v>
+        <v>111814369</v>
       </c>
       <c r="B8" t="n">
-        <v>95674</v>
+        <v>96265</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1383,21 +1383,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>222741</v>
+        <v>219790</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1407,10 +1407,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>505015.75484597</v>
+        <v>504944.0561301867</v>
       </c>
       <c r="R8" t="n">
-        <v>7018737.647699019</v>
+        <v>7018794.657189432</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1483,10 +1483,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111814411</v>
+        <v>111814348</v>
       </c>
       <c r="B9" t="n">
-        <v>96253</v>
+        <v>96370</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1499,21 +1499,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>504</v>
+        <v>219847</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>505014.8575873387</v>
+        <v>504944.9568800884</v>
       </c>
       <c r="R9" t="n">
-        <v>7018735.397438973</v>
+        <v>7018794.658574538</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1599,10 +1599,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111814375</v>
+        <v>111814359</v>
       </c>
       <c r="B10" t="n">
-        <v>96370</v>
+        <v>90300</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1611,25 +1611,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>219847</v>
+        <v>4745</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>504999.9977373667</v>
+        <v>505073.4975346876</v>
       </c>
       <c r="R10" t="n">
-        <v>7018733.575208749</v>
+        <v>7018678.36784017</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111814428</v>
+        <v>111814350</v>
       </c>
       <c r="B11" t="n">
-        <v>90666</v>
+        <v>89401</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1727,25 +1727,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4364</v>
+        <v>1108</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1755,10 +1755,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>504987.8220338543</v>
+        <v>504984.8875472886</v>
       </c>
       <c r="R11" t="n">
-        <v>7018743.451279385</v>
+        <v>7018893.217038274</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1831,10 +1831,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111814415</v>
+        <v>111814402</v>
       </c>
       <c r="B12" t="n">
-        <v>56543</v>
+        <v>90651</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1847,21 +1847,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>103021</v>
+        <v>1968</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1871,10 +1871,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>505100.2035408606</v>
+        <v>505200.3682009591</v>
       </c>
       <c r="R12" t="n">
-        <v>7018878.55609256</v>
+        <v>7018764.927175661</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1947,10 +1947,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111814356</v>
+        <v>111814428</v>
       </c>
       <c r="B13" t="n">
-        <v>90678</v>
+        <v>90666</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1963,21 +1963,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4366</v>
+        <v>4364</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1987,10 +1987,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>505204.4099656619</v>
+        <v>504987.8220338543</v>
       </c>
       <c r="R13" t="n">
-        <v>7018772.129998797</v>
+        <v>7018743.451279385</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2063,10 +2063,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111814344</v>
+        <v>111814351</v>
       </c>
       <c r="B14" t="n">
-        <v>103288</v>
+        <v>89845</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2075,25 +2075,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>221144</v>
+        <v>1209</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2103,10 +2103,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>505070.3462143789</v>
+        <v>504984.8875472886</v>
       </c>
       <c r="R14" t="n">
-        <v>7018677.46330901</v>
+        <v>7018893.217038274</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2179,10 +2179,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111814434</v>
+        <v>111814388</v>
       </c>
       <c r="B15" t="n">
-        <v>96253</v>
+        <v>78578</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2191,25 +2191,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>504</v>
+        <v>6458</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2219,10 +2219,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>505012.6056710624</v>
+        <v>505182.7410700406</v>
       </c>
       <c r="R15" t="n">
-        <v>7018735.393927739</v>
+        <v>7018803.578552675</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2275,6 +2275,21 @@
       </c>
       <c r="AG15" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
@@ -2295,7 +2310,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111814362</v>
+        <v>111814430</v>
       </c>
       <c r="B16" t="n">
         <v>103288</v>
@@ -2335,10 +2350,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>504958.3523041067</v>
+        <v>504987.8220338543</v>
       </c>
       <c r="R16" t="n">
-        <v>7018869.788911887</v>
+        <v>7018743.451279385</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2411,10 +2426,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111814369</v>
+        <v>111814411</v>
       </c>
       <c r="B17" t="n">
-        <v>96265</v>
+        <v>96253</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2427,21 +2442,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>219790</v>
+        <v>504</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2451,10 +2466,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>504944.0561301867</v>
+        <v>505014.8575873387</v>
       </c>
       <c r="R17" t="n">
-        <v>7018794.657189432</v>
+        <v>7018735.397438973</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2527,10 +2542,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111814430</v>
+        <v>111814432</v>
       </c>
       <c r="B18" t="n">
-        <v>103288</v>
+        <v>95674</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2543,21 +2558,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>221144</v>
+        <v>222741</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2567,10 +2582,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>504987.8220338543</v>
+        <v>505015.75484597</v>
       </c>
       <c r="R18" t="n">
-        <v>7018743.451279385</v>
+        <v>7018737.647699019</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2643,10 +2658,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111814350</v>
+        <v>111814356</v>
       </c>
       <c r="B19" t="n">
-        <v>89401</v>
+        <v>90678</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2655,25 +2670,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1108</v>
+        <v>4366</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2683,10 +2698,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>504984.8875472886</v>
+        <v>505204.4099656619</v>
       </c>
       <c r="R19" t="n">
-        <v>7018893.217038274</v>
+        <v>7018772.129998797</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2759,10 +2774,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111814348</v>
+        <v>111814417</v>
       </c>
       <c r="B20" t="n">
-        <v>96370</v>
+        <v>103288</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2775,21 +2790,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>219847</v>
+        <v>221144</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2799,10 +2814,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>504944.9568800884</v>
+        <v>505110.448201828</v>
       </c>
       <c r="R20" t="n">
-        <v>7018794.658574538</v>
+        <v>7018666.73204405</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2875,10 +2890,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111814351</v>
+        <v>111814434</v>
       </c>
       <c r="B21" t="n">
-        <v>89845</v>
+        <v>96253</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2887,25 +2902,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1209</v>
+        <v>504</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2915,10 +2930,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>504984.8875472886</v>
+        <v>505012.6056710624</v>
       </c>
       <c r="R21" t="n">
-        <v>7018893.217038274</v>
+        <v>7018735.393927739</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2991,10 +3006,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111814402</v>
+        <v>111814344</v>
       </c>
       <c r="B22" t="n">
-        <v>90651</v>
+        <v>103288</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3003,25 +3018,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1968</v>
+        <v>221144</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3031,10 +3046,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>505200.3682009591</v>
+        <v>505070.3462143789</v>
       </c>
       <c r="R22" t="n">
-        <v>7018764.927175661</v>
+        <v>7018677.46330901</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3107,7 +3122,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111814417</v>
+        <v>111814362</v>
       </c>
       <c r="B23" t="n">
         <v>103288</v>
@@ -3147,10 +3162,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>505110.448201828</v>
+        <v>504958.3523041067</v>
       </c>
       <c r="R23" t="n">
-        <v>7018666.73204405</v>
+        <v>7018869.788911887</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3223,10 +3238,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111814388</v>
+        <v>111814415</v>
       </c>
       <c r="B24" t="n">
-        <v>78578</v>
+        <v>56543</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3239,21 +3254,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6458</v>
+        <v>103021</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3263,10 +3278,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>505182.7410700406</v>
+        <v>505100.2035408606</v>
       </c>
       <c r="R24" t="n">
-        <v>7018803.578552675</v>
+        <v>7018878.55609256</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3319,21 +3334,6 @@
       </c>
       <c r="AG24" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ24" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK24" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO24" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">

--- a/artfynd/A 67457-2019.xlsx
+++ b/artfynd/A 67457-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111783769</v>
+        <v>111782876</v>
       </c>
       <c r="B2" t="n">
-        <v>90665</v>
+        <v>90651</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,39 +692,41 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1435</v>
+        <v>1968</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Bitter taggsvamp</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum fennicum</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Svarttjärnen (Svarttjärnen), Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>505036.7939151306</v>
+        <v>505022.9813479512</v>
       </c>
       <c r="R2" t="n">
-        <v>7018819.987804689</v>
+        <v>7018724.615566149</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -775,6 +777,7 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -793,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111783071</v>
+        <v>111784168</v>
       </c>
       <c r="B3" t="n">
-        <v>90300</v>
+        <v>90709</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +812,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4745</v>
+        <v>5448</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +837,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>505060.2648977584</v>
+        <v>504976.0557203053</v>
       </c>
       <c r="R3" t="n">
-        <v>7018787.191973396</v>
+        <v>7018779.864305317</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -864,7 +867,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-08-30</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -874,7 +877,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-08-30</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -906,10 +909,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111782750</v>
+        <v>111783769</v>
       </c>
       <c r="B4" t="n">
-        <v>82949</v>
+        <v>90665</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,41 +921,39 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5589</v>
+        <v>1435</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Bitter taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Hydnellum fennicum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>(P.Karst.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Svarttjärnen (Svarttjärnen), Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>505007.618534557</v>
+        <v>505036.7939151306</v>
       </c>
       <c r="R4" t="n">
-        <v>7018756.52538473</v>
+        <v>7018819.987804689</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1003,7 +1004,6 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1022,10 +1022,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111784168</v>
+        <v>111782750</v>
       </c>
       <c r="B5" t="n">
-        <v>90709</v>
+        <v>82949</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1038,35 +1038,37 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5448</v>
+        <v>5589</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Svarttjärnen (Svarttjärnen), Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>504976.0557203053</v>
+        <v>505007.618534557</v>
       </c>
       <c r="R5" t="n">
-        <v>7018779.864305317</v>
+        <v>7018756.52538473</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1093,7 +1095,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-08-30</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1103,7 +1105,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-08-30</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1117,6 +1119,7 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1135,10 +1138,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111782876</v>
+        <v>111783071</v>
       </c>
       <c r="B6" t="n">
-        <v>90651</v>
+        <v>90300</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1151,37 +1154,35 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1968</v>
+        <v>4745</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Svarttjärnen (Svarttjärnen), Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>505022.9813479512</v>
+        <v>505060.2648977584</v>
       </c>
       <c r="R6" t="n">
-        <v>7018724.615566149</v>
+        <v>7018787.191973396</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1232,7 +1233,6 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1251,10 +1251,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111814375</v>
+        <v>111814362</v>
       </c>
       <c r="B7" t="n">
-        <v>96370</v>
+        <v>103288</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1267,21 +1267,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>219847</v>
+        <v>221144</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1291,10 +1291,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>504999.9977373667</v>
+        <v>504958.3523041067</v>
       </c>
       <c r="R7" t="n">
-        <v>7018733.575208749</v>
+        <v>7018869.788911887</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1367,10 +1367,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111814369</v>
+        <v>111814417</v>
       </c>
       <c r="B8" t="n">
-        <v>96265</v>
+        <v>103288</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1383,21 +1383,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>219790</v>
+        <v>221144</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1407,10 +1407,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>504944.0561301867</v>
+        <v>505110.448201828</v>
       </c>
       <c r="R8" t="n">
-        <v>7018794.657189432</v>
+        <v>7018666.73204405</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1483,10 +1483,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111814348</v>
+        <v>111814411</v>
       </c>
       <c r="B9" t="n">
-        <v>96370</v>
+        <v>96253</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1499,21 +1499,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>219847</v>
+        <v>504</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>504944.9568800884</v>
+        <v>505014.8575873387</v>
       </c>
       <c r="R9" t="n">
-        <v>7018794.658574538</v>
+        <v>7018735.397438973</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1831,10 +1831,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111814402</v>
+        <v>111814351</v>
       </c>
       <c r="B12" t="n">
-        <v>90651</v>
+        <v>89845</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1843,25 +1843,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1968</v>
+        <v>1209</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1871,10 +1871,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>505200.3682009591</v>
+        <v>504984.8875472886</v>
       </c>
       <c r="R12" t="n">
-        <v>7018764.927175661</v>
+        <v>7018893.217038274</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1947,10 +1947,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111814428</v>
+        <v>111814356</v>
       </c>
       <c r="B13" t="n">
-        <v>90666</v>
+        <v>90678</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1963,21 +1963,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1987,10 +1987,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>504987.8220338543</v>
+        <v>505204.4099656619</v>
       </c>
       <c r="R13" t="n">
-        <v>7018743.451279385</v>
+        <v>7018772.129998797</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2063,10 +2063,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111814351</v>
+        <v>111814432</v>
       </c>
       <c r="B14" t="n">
-        <v>89845</v>
+        <v>95674</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2075,25 +2075,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1209</v>
+        <v>222741</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2103,10 +2103,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>504984.8875472886</v>
+        <v>505015.75484597</v>
       </c>
       <c r="R14" t="n">
-        <v>7018893.217038274</v>
+        <v>7018737.647699019</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2179,10 +2179,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111814388</v>
+        <v>111814415</v>
       </c>
       <c r="B15" t="n">
-        <v>78578</v>
+        <v>56543</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2195,21 +2195,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6458</v>
+        <v>103021</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2219,10 +2219,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>505182.7410700406</v>
+        <v>505100.2035408606</v>
       </c>
       <c r="R15" t="n">
-        <v>7018803.578552675</v>
+        <v>7018878.55609256</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2275,21 +2275,6 @@
       </c>
       <c r="AG15" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
@@ -2310,10 +2295,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111814430</v>
+        <v>111814348</v>
       </c>
       <c r="B16" t="n">
-        <v>103288</v>
+        <v>96370</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2326,21 +2311,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>221144</v>
+        <v>219847</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2350,10 +2335,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>504987.8220338543</v>
+        <v>504944.9568800884</v>
       </c>
       <c r="R16" t="n">
-        <v>7018743.451279385</v>
+        <v>7018794.658574538</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2426,10 +2411,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111814411</v>
+        <v>111814402</v>
       </c>
       <c r="B17" t="n">
-        <v>96253</v>
+        <v>90651</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2438,25 +2423,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>504</v>
+        <v>1968</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2466,10 +2451,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>505014.8575873387</v>
+        <v>505200.3682009591</v>
       </c>
       <c r="R17" t="n">
-        <v>7018735.397438973</v>
+        <v>7018764.927175661</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2542,10 +2527,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111814432</v>
+        <v>111814375</v>
       </c>
       <c r="B18" t="n">
-        <v>95674</v>
+        <v>96370</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2558,21 +2543,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>222741</v>
+        <v>219847</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2582,10 +2567,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>505015.75484597</v>
+        <v>504999.9977373667</v>
       </c>
       <c r="R18" t="n">
-        <v>7018737.647699019</v>
+        <v>7018733.575208749</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2658,10 +2643,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111814356</v>
+        <v>111814388</v>
       </c>
       <c r="B19" t="n">
-        <v>90678</v>
+        <v>78578</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2670,25 +2655,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4366</v>
+        <v>6458</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2698,10 +2683,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>505204.4099656619</v>
+        <v>505182.7410700406</v>
       </c>
       <c r="R19" t="n">
-        <v>7018772.129998797</v>
+        <v>7018803.578552675</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2754,6 +2739,21 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
@@ -2774,7 +2774,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111814417</v>
+        <v>111814344</v>
       </c>
       <c r="B20" t="n">
         <v>103288</v>
@@ -2814,10 +2814,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>505110.448201828</v>
+        <v>505070.3462143789</v>
       </c>
       <c r="R20" t="n">
-        <v>7018666.73204405</v>
+        <v>7018677.46330901</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2890,10 +2890,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111814434</v>
+        <v>111814430</v>
       </c>
       <c r="B21" t="n">
-        <v>96253</v>
+        <v>103288</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2906,21 +2906,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>504</v>
+        <v>221144</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2930,10 +2930,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>505012.6056710624</v>
+        <v>504987.8220338543</v>
       </c>
       <c r="R21" t="n">
-        <v>7018735.393927739</v>
+        <v>7018743.451279385</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3006,10 +3006,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111814344</v>
+        <v>111814369</v>
       </c>
       <c r="B22" t="n">
-        <v>103288</v>
+        <v>96265</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3022,21 +3022,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>221144</v>
+        <v>219790</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3046,10 +3046,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>505070.3462143789</v>
+        <v>504944.0561301867</v>
       </c>
       <c r="R22" t="n">
-        <v>7018677.46330901</v>
+        <v>7018794.657189432</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3122,10 +3122,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111814362</v>
+        <v>111814434</v>
       </c>
       <c r="B23" t="n">
-        <v>103288</v>
+        <v>96253</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3138,21 +3138,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>221144</v>
+        <v>504</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3162,10 +3162,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>504958.3523041067</v>
+        <v>505012.6056710624</v>
       </c>
       <c r="R23" t="n">
-        <v>7018869.788911887</v>
+        <v>7018735.393927739</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3238,10 +3238,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111814415</v>
+        <v>111814428</v>
       </c>
       <c r="B24" t="n">
-        <v>56543</v>
+        <v>90666</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3250,25 +3250,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>103021</v>
+        <v>4364</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3278,10 +3278,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>505100.2035408606</v>
+        <v>504987.8220338543</v>
       </c>
       <c r="R24" t="n">
-        <v>7018878.55609256</v>
+        <v>7018743.451279385</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>

--- a/artfynd/A 67457-2019.xlsx
+++ b/artfynd/A 67457-2019.xlsx
@@ -3006,10 +3006,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111814369</v>
+        <v>111814434</v>
       </c>
       <c r="B22" t="n">
-        <v>96265</v>
+        <v>96253</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3022,21 +3022,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>219790</v>
+        <v>504</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3046,10 +3046,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>504944.0561301867</v>
+        <v>505012.6056710624</v>
       </c>
       <c r="R22" t="n">
-        <v>7018794.657189432</v>
+        <v>7018735.393927739</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3122,10 +3122,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111814434</v>
+        <v>111814369</v>
       </c>
       <c r="B23" t="n">
-        <v>96253</v>
+        <v>96265</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3138,21 +3138,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>504</v>
+        <v>219790</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3162,10 +3162,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>505012.6056710624</v>
+        <v>504944.0561301867</v>
       </c>
       <c r="R23" t="n">
-        <v>7018735.393927739</v>
+        <v>7018794.657189432</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>

--- a/artfynd/A 67457-2019.xlsx
+++ b/artfynd/A 67457-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111782876</v>
+        <v>111783071</v>
       </c>
       <c r="B2" t="n">
-        <v>90651</v>
+        <v>90300</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,37 +696,35 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1968</v>
+        <v>4745</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Svarttjärnen (Svarttjärnen), Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>505022.9813479512</v>
+        <v>505060.2648977584</v>
       </c>
       <c r="R2" t="n">
-        <v>7018724.615566149</v>
+        <v>7018787.191973396</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -777,7 +775,6 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -796,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111784168</v>
+        <v>111782876</v>
       </c>
       <c r="B3" t="n">
-        <v>90709</v>
+        <v>90651</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,35 +809,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5448</v>
+        <v>1968</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Svarttjärnen (Svarttjärnen), Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>504976.0557203053</v>
+        <v>505022.9813479512</v>
       </c>
       <c r="R3" t="n">
-        <v>7018779.864305317</v>
+        <v>7018724.615566149</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -867,7 +866,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-08-30</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -877,7 +876,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-08-30</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -891,6 +890,7 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -1138,10 +1138,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111783071</v>
+        <v>111784168</v>
       </c>
       <c r="B6" t="n">
-        <v>90300</v>
+        <v>90709</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1154,21 +1154,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4745</v>
+        <v>5448</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1179,10 +1179,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>505060.2648977584</v>
+        <v>504976.0557203053</v>
       </c>
       <c r="R6" t="n">
-        <v>7018787.191973396</v>
+        <v>7018779.864305317</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-08-30</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-08-30</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1251,7 +1251,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111814362</v>
+        <v>111814344</v>
       </c>
       <c r="B7" t="n">
         <v>103288</v>
@@ -1291,10 +1291,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>504958.3523041067</v>
+        <v>505070.3462143789</v>
       </c>
       <c r="R7" t="n">
-        <v>7018869.788911887</v>
+        <v>7018677.46330901</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1367,10 +1367,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111814417</v>
+        <v>111814356</v>
       </c>
       <c r="B8" t="n">
-        <v>103288</v>
+        <v>90678</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1383,21 +1383,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>221144</v>
+        <v>4366</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1407,10 +1407,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>505110.448201828</v>
+        <v>505204.4099656619</v>
       </c>
       <c r="R8" t="n">
-        <v>7018666.73204405</v>
+        <v>7018772.129998797</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1483,10 +1483,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111814411</v>
+        <v>111814428</v>
       </c>
       <c r="B9" t="n">
-        <v>96253</v>
+        <v>90666</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1499,21 +1499,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>504</v>
+        <v>4364</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>505014.8575873387</v>
+        <v>504987.8220338543</v>
       </c>
       <c r="R9" t="n">
-        <v>7018735.397438973</v>
+        <v>7018743.451279385</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1599,10 +1599,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111814359</v>
+        <v>111814348</v>
       </c>
       <c r="B10" t="n">
-        <v>90300</v>
+        <v>96370</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1611,25 +1611,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4745</v>
+        <v>219847</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>505073.4975346876</v>
+        <v>504944.9568800884</v>
       </c>
       <c r="R10" t="n">
-        <v>7018678.36784017</v>
+        <v>7018794.658574538</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111814350</v>
+        <v>111814351</v>
       </c>
       <c r="B11" t="n">
-        <v>89401</v>
+        <v>89845</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1727,25 +1727,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1108</v>
+        <v>1209</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1831,10 +1831,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111814351</v>
+        <v>111814388</v>
       </c>
       <c r="B12" t="n">
-        <v>89845</v>
+        <v>78578</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1843,25 +1843,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1209</v>
+        <v>6458</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1871,10 +1871,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>504984.8875472886</v>
+        <v>505182.7410700406</v>
       </c>
       <c r="R12" t="n">
-        <v>7018893.217038274</v>
+        <v>7018803.578552675</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1927,6 +1927,21 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
@@ -1947,10 +1962,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111814356</v>
+        <v>111814402</v>
       </c>
       <c r="B13" t="n">
-        <v>90678</v>
+        <v>90651</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1959,25 +1974,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4366</v>
+        <v>1968</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1987,10 +2002,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>505204.4099656619</v>
+        <v>505200.3682009591</v>
       </c>
       <c r="R13" t="n">
-        <v>7018772.129998797</v>
+        <v>7018764.927175661</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2063,10 +2078,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111814432</v>
+        <v>111814395</v>
       </c>
       <c r="B14" t="n">
-        <v>95674</v>
+        <v>103288</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2079,21 +2094,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>222741</v>
+        <v>221144</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2103,10 +2118,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>505015.75484597</v>
+        <v>504987.8220338543</v>
       </c>
       <c r="R14" t="n">
-        <v>7018737.647699019</v>
+        <v>7018743.451279385</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2179,10 +2194,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111814415</v>
+        <v>111814359</v>
       </c>
       <c r="B15" t="n">
-        <v>56543</v>
+        <v>90300</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2195,21 +2210,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>103021</v>
+        <v>4745</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2219,10 +2234,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>505100.2035408606</v>
+        <v>505073.4975346876</v>
       </c>
       <c r="R15" t="n">
-        <v>7018878.55609256</v>
+        <v>7018678.36784017</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2295,10 +2310,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111814348</v>
+        <v>111814432</v>
       </c>
       <c r="B16" t="n">
-        <v>96370</v>
+        <v>95674</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2311,21 +2326,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>219847</v>
+        <v>222741</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2335,10 +2350,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>504944.9568800884</v>
+        <v>505015.75484597</v>
       </c>
       <c r="R16" t="n">
-        <v>7018794.658574538</v>
+        <v>7018737.647699019</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2411,10 +2426,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111814402</v>
+        <v>111814375</v>
       </c>
       <c r="B17" t="n">
-        <v>90651</v>
+        <v>96370</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2423,25 +2438,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1968</v>
+        <v>219847</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2451,10 +2466,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>505200.3682009591</v>
+        <v>504999.9977373667</v>
       </c>
       <c r="R17" t="n">
-        <v>7018764.927175661</v>
+        <v>7018733.575208749</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2527,10 +2542,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111814375</v>
+        <v>111814369</v>
       </c>
       <c r="B18" t="n">
-        <v>96370</v>
+        <v>96265</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2543,21 +2558,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>219847</v>
+        <v>219790</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2567,10 +2582,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>504999.9977373667</v>
+        <v>504944.0561301867</v>
       </c>
       <c r="R18" t="n">
-        <v>7018733.575208749</v>
+        <v>7018794.657189432</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2643,10 +2658,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111814388</v>
+        <v>111814350</v>
       </c>
       <c r="B19" t="n">
-        <v>78578</v>
+        <v>89401</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2659,21 +2674,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6458</v>
+        <v>1108</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2683,10 +2698,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>505182.7410700406</v>
+        <v>504984.8875472886</v>
       </c>
       <c r="R19" t="n">
-        <v>7018803.578552675</v>
+        <v>7018893.217038274</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2739,21 +2754,6 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
@@ -2774,10 +2774,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111814344</v>
+        <v>111814415</v>
       </c>
       <c r="B20" t="n">
-        <v>103288</v>
+        <v>56543</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2786,25 +2786,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>221144</v>
+        <v>103021</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2814,10 +2814,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>505070.3462143789</v>
+        <v>505100.2035408606</v>
       </c>
       <c r="R20" t="n">
-        <v>7018677.46330901</v>
+        <v>7018878.55609256</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2890,10 +2890,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111814430</v>
+        <v>111814411</v>
       </c>
       <c r="B21" t="n">
-        <v>103288</v>
+        <v>96253</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2906,21 +2906,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>221144</v>
+        <v>504</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2930,10 +2930,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>504987.8220338543</v>
+        <v>505014.8575873387</v>
       </c>
       <c r="R21" t="n">
-        <v>7018743.451279385</v>
+        <v>7018735.397438973</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3006,10 +3006,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111814434</v>
+        <v>111814417</v>
       </c>
       <c r="B22" t="n">
-        <v>96253</v>
+        <v>103288</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3022,21 +3022,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>504</v>
+        <v>221144</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3046,10 +3046,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>505012.6056710624</v>
+        <v>505110.448201828</v>
       </c>
       <c r="R22" t="n">
-        <v>7018735.393927739</v>
+        <v>7018666.73204405</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3122,10 +3122,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111814369</v>
+        <v>111814362</v>
       </c>
       <c r="B23" t="n">
-        <v>96265</v>
+        <v>103288</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3138,21 +3138,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>219790</v>
+        <v>221144</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3162,10 +3162,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>504944.0561301867</v>
+        <v>504958.3523041067</v>
       </c>
       <c r="R23" t="n">
-        <v>7018794.657189432</v>
+        <v>7018869.788911887</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3238,10 +3238,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111814428</v>
+        <v>111814434</v>
       </c>
       <c r="B24" t="n">
-        <v>90666</v>
+        <v>96253</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3254,21 +3254,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4364</v>
+        <v>504</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3278,10 +3278,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>504987.8220338543</v>
+        <v>505012.6056710624</v>
       </c>
       <c r="R24" t="n">
-        <v>7018743.451279385</v>
+        <v>7018735.393927739</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>

--- a/artfynd/A 67457-2019.xlsx
+++ b/artfynd/A 67457-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111783071</v>
+        <v>111784168</v>
       </c>
       <c r="B2" t="n">
-        <v>90300</v>
+        <v>90709</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4745</v>
+        <v>5448</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>505060.2648977584</v>
+        <v>504976.0557203053</v>
       </c>
       <c r="R2" t="n">
-        <v>7018787.191973396</v>
+        <v>7018779.864305317</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -751,7 +751,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2023-08-30</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2023-08-30</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111782876</v>
+        <v>111783769</v>
       </c>
       <c r="B3" t="n">
-        <v>90651</v>
+        <v>90665</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,41 +805,39 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1968</v>
+        <v>1435</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Bitter taggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Hydnellum fennicum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>(P.Karst.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Svarttjärnen (Svarttjärnen), Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>505022.9813479512</v>
+        <v>505036.7939151306</v>
       </c>
       <c r="R3" t="n">
-        <v>7018724.615566149</v>
+        <v>7018819.987804689</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -890,7 +888,6 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -909,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111783769</v>
+        <v>111782876</v>
       </c>
       <c r="B4" t="n">
-        <v>90665</v>
+        <v>90651</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -921,39 +918,41 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1435</v>
+        <v>1968</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bitter taggsvamp</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum fennicum</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Svarttjärnen (Svarttjärnen), Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>505036.7939151306</v>
+        <v>505022.9813479512</v>
       </c>
       <c r="R4" t="n">
-        <v>7018819.987804689</v>
+        <v>7018724.615566149</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1004,6 +1003,7 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1022,10 +1022,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111782750</v>
+        <v>111783071</v>
       </c>
       <c r="B5" t="n">
-        <v>82949</v>
+        <v>90300</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1038,37 +1038,35 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5589</v>
+        <v>4745</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Svarttjärnen (Svarttjärnen), Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>505007.618534557</v>
+        <v>505060.2648977584</v>
       </c>
       <c r="R5" t="n">
-        <v>7018756.52538473</v>
+        <v>7018787.191973396</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1119,7 +1117,6 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1138,10 +1135,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111784168</v>
+        <v>111782750</v>
       </c>
       <c r="B6" t="n">
-        <v>90709</v>
+        <v>82949</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1154,35 +1151,37 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5448</v>
+        <v>5589</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Svarttjärnen (Svarttjärnen), Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>504976.0557203053</v>
+        <v>505007.618534557</v>
       </c>
       <c r="R6" t="n">
-        <v>7018779.864305317</v>
+        <v>7018756.52538473</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1209,7 +1208,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-08-30</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1219,7 +1218,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-08-30</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1233,6 +1232,7 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1251,10 +1251,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111814344</v>
+        <v>111814348</v>
       </c>
       <c r="B7" t="n">
-        <v>103288</v>
+        <v>96370</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1267,21 +1267,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>221144</v>
+        <v>219847</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1291,10 +1291,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>505070.3462143789</v>
+        <v>504944.9568800884</v>
       </c>
       <c r="R7" t="n">
-        <v>7018677.46330901</v>
+        <v>7018794.658574538</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1367,10 +1367,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111814356</v>
+        <v>111814402</v>
       </c>
       <c r="B8" t="n">
-        <v>90678</v>
+        <v>90651</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1379,25 +1379,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4366</v>
+        <v>1968</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1407,10 +1407,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>505204.4099656619</v>
+        <v>505200.3682009591</v>
       </c>
       <c r="R8" t="n">
-        <v>7018772.129998797</v>
+        <v>7018764.927175661</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1483,10 +1483,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111814428</v>
+        <v>111814411</v>
       </c>
       <c r="B9" t="n">
-        <v>90666</v>
+        <v>96253</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1499,21 +1499,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4364</v>
+        <v>504</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>504987.8220338543</v>
+        <v>505014.8575873387</v>
       </c>
       <c r="R9" t="n">
-        <v>7018743.451279385</v>
+        <v>7018735.397438973</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1599,10 +1599,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111814348</v>
+        <v>111814362</v>
       </c>
       <c r="B10" t="n">
-        <v>96370</v>
+        <v>103288</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1615,21 +1615,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>219847</v>
+        <v>221144</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>504944.9568800884</v>
+        <v>504958.3523041067</v>
       </c>
       <c r="R10" t="n">
-        <v>7018794.658574538</v>
+        <v>7018869.788911887</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111814351</v>
+        <v>111814344</v>
       </c>
       <c r="B11" t="n">
-        <v>89845</v>
+        <v>103288</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1727,25 +1727,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1209</v>
+        <v>221144</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1755,10 +1755,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>504984.8875472886</v>
+        <v>505070.3462143789</v>
       </c>
       <c r="R11" t="n">
-        <v>7018893.217038274</v>
+        <v>7018677.46330901</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1831,10 +1831,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111814388</v>
+        <v>111814415</v>
       </c>
       <c r="B12" t="n">
-        <v>78578</v>
+        <v>56543</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1847,21 +1847,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6458</v>
+        <v>103021</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1871,10 +1871,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>505182.7410700406</v>
+        <v>505100.2035408606</v>
       </c>
       <c r="R12" t="n">
-        <v>7018803.578552675</v>
+        <v>7018878.55609256</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1927,21 +1927,6 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
@@ -1962,10 +1947,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111814402</v>
+        <v>111814428</v>
       </c>
       <c r="B13" t="n">
-        <v>90651</v>
+        <v>90666</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1974,25 +1959,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1968</v>
+        <v>4364</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2002,10 +1987,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>505200.3682009591</v>
+        <v>504987.8220338543</v>
       </c>
       <c r="R13" t="n">
-        <v>7018764.927175661</v>
+        <v>7018743.451279385</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2078,7 +2063,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111814395</v>
+        <v>111814417</v>
       </c>
       <c r="B14" t="n">
         <v>103288</v>
@@ -2118,10 +2103,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>504987.8220338543</v>
+        <v>505110.448201828</v>
       </c>
       <c r="R14" t="n">
-        <v>7018743.451279385</v>
+        <v>7018666.73204405</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2194,10 +2179,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111814359</v>
+        <v>111814369</v>
       </c>
       <c r="B15" t="n">
-        <v>90300</v>
+        <v>96265</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2206,25 +2191,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4745</v>
+        <v>219790</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2234,10 +2219,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>505073.4975346876</v>
+        <v>504944.0561301867</v>
       </c>
       <c r="R15" t="n">
-        <v>7018678.36784017</v>
+        <v>7018794.657189432</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2310,10 +2295,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111814432</v>
+        <v>111814356</v>
       </c>
       <c r="B16" t="n">
-        <v>95674</v>
+        <v>90678</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2326,21 +2311,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>222741</v>
+        <v>4366</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2350,10 +2335,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>505015.75484597</v>
+        <v>505204.4099656619</v>
       </c>
       <c r="R16" t="n">
-        <v>7018737.647699019</v>
+        <v>7018772.129998797</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2426,10 +2411,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111814375</v>
+        <v>111814388</v>
       </c>
       <c r="B17" t="n">
-        <v>96370</v>
+        <v>78578</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2438,25 +2423,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>219847</v>
+        <v>6458</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2466,10 +2451,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>504999.9977373667</v>
+        <v>505182.7410700406</v>
       </c>
       <c r="R17" t="n">
-        <v>7018733.575208749</v>
+        <v>7018803.578552675</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2522,6 +2507,21 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
@@ -2542,10 +2542,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111814369</v>
+        <v>111814375</v>
       </c>
       <c r="B18" t="n">
-        <v>96265</v>
+        <v>96370</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2558,21 +2558,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>219790</v>
+        <v>219847</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2582,10 +2582,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>504944.0561301867</v>
+        <v>504999.9977373667</v>
       </c>
       <c r="R18" t="n">
-        <v>7018794.657189432</v>
+        <v>7018733.575208749</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2658,10 +2658,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111814350</v>
+        <v>111814434</v>
       </c>
       <c r="B19" t="n">
-        <v>89401</v>
+        <v>96253</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2670,25 +2670,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1108</v>
+        <v>504</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2698,10 +2698,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>504984.8875472886</v>
+        <v>505012.6056710624</v>
       </c>
       <c r="R19" t="n">
-        <v>7018893.217038274</v>
+        <v>7018735.393927739</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2774,10 +2774,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111814415</v>
+        <v>111814395</v>
       </c>
       <c r="B20" t="n">
-        <v>56543</v>
+        <v>103288</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2786,25 +2786,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>103021</v>
+        <v>221144</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2814,10 +2814,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>505100.2035408606</v>
+        <v>504987.8220338543</v>
       </c>
       <c r="R20" t="n">
-        <v>7018878.55609256</v>
+        <v>7018743.451279385</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2890,10 +2890,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111814411</v>
+        <v>111814432</v>
       </c>
       <c r="B21" t="n">
-        <v>96253</v>
+        <v>95674</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2906,21 +2906,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>504</v>
+        <v>222741</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2930,10 +2930,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>505014.8575873387</v>
+        <v>505015.75484597</v>
       </c>
       <c r="R21" t="n">
-        <v>7018735.397438973</v>
+        <v>7018737.647699019</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3006,10 +3006,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111814417</v>
+        <v>111814359</v>
       </c>
       <c r="B22" t="n">
-        <v>103288</v>
+        <v>90300</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3018,25 +3018,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>221144</v>
+        <v>4745</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3046,10 +3046,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>505110.448201828</v>
+        <v>505073.4975346876</v>
       </c>
       <c r="R22" t="n">
-        <v>7018666.73204405</v>
+        <v>7018678.36784017</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3122,10 +3122,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111814362</v>
+        <v>111814350</v>
       </c>
       <c r="B23" t="n">
-        <v>103288</v>
+        <v>89401</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3134,25 +3134,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>221144</v>
+        <v>1108</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3162,10 +3162,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>504958.3523041067</v>
+        <v>504984.8875472886</v>
       </c>
       <c r="R23" t="n">
-        <v>7018869.788911887</v>
+        <v>7018893.217038274</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3238,10 +3238,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111814434</v>
+        <v>111814351</v>
       </c>
       <c r="B24" t="n">
-        <v>96253</v>
+        <v>89845</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3250,25 +3250,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>504</v>
+        <v>1209</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3278,10 +3278,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>505012.6056710624</v>
+        <v>504984.8875472886</v>
       </c>
       <c r="R24" t="n">
-        <v>7018735.393927739</v>
+        <v>7018893.217038274</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>

--- a/artfynd/A 67457-2019.xlsx
+++ b/artfynd/A 67457-2019.xlsx
@@ -1251,10 +1251,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111814348</v>
+        <v>111814402</v>
       </c>
       <c r="B7" t="n">
-        <v>96370</v>
+        <v>90651</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1263,25 +1263,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>219847</v>
+        <v>1968</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1291,10 +1291,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>504944.9568800884</v>
+        <v>505200.3682009591</v>
       </c>
       <c r="R7" t="n">
-        <v>7018794.658574538</v>
+        <v>7018764.927175661</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1367,10 +1367,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111814402</v>
+        <v>111814348</v>
       </c>
       <c r="B8" t="n">
-        <v>90651</v>
+        <v>96370</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1379,25 +1379,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1968</v>
+        <v>219847</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1407,10 +1407,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>505200.3682009591</v>
+        <v>504944.9568800884</v>
       </c>
       <c r="R8" t="n">
-        <v>7018764.927175661</v>
+        <v>7018794.658574538</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -2890,10 +2890,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111814432</v>
+        <v>111814359</v>
       </c>
       <c r="B21" t="n">
-        <v>95674</v>
+        <v>90300</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2902,25 +2902,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>222741</v>
+        <v>4745</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2930,10 +2930,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>505015.75484597</v>
+        <v>505073.4975346876</v>
       </c>
       <c r="R21" t="n">
-        <v>7018737.647699019</v>
+        <v>7018678.36784017</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3006,10 +3006,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111814359</v>
+        <v>111814350</v>
       </c>
       <c r="B22" t="n">
-        <v>90300</v>
+        <v>89401</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3022,21 +3022,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4745</v>
+        <v>1108</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3046,10 +3046,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>505073.4975346876</v>
+        <v>504984.8875472886</v>
       </c>
       <c r="R22" t="n">
-        <v>7018678.36784017</v>
+        <v>7018893.217038274</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3122,10 +3122,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111814350</v>
+        <v>111814351</v>
       </c>
       <c r="B23" t="n">
-        <v>89401</v>
+        <v>89845</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3134,25 +3134,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1108</v>
+        <v>1209</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3238,10 +3238,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111814351</v>
+        <v>111814432</v>
       </c>
       <c r="B24" t="n">
-        <v>89845</v>
+        <v>95674</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3250,25 +3250,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1209</v>
+        <v>222741</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3278,10 +3278,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>504984.8875472886</v>
+        <v>505015.75484597</v>
       </c>
       <c r="R24" t="n">
-        <v>7018893.217038274</v>
+        <v>7018737.647699019</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>

--- a/artfynd/A 67457-2019.xlsx
+++ b/artfynd/A 67457-2019.xlsx
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111783769</v>
+        <v>111782750</v>
       </c>
       <c r="B3" t="n">
-        <v>90665</v>
+        <v>82949</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,39 +805,41 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1435</v>
+        <v>5589</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bitter taggsvamp</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum fennicum</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Svarttjärnen (Svarttjärnen), Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>505036.7939151306</v>
+        <v>505007.618534557</v>
       </c>
       <c r="R3" t="n">
-        <v>7018819.987804689</v>
+        <v>7018756.52538473</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -888,6 +890,7 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -906,10 +909,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111782876</v>
+        <v>111783071</v>
       </c>
       <c r="B4" t="n">
-        <v>90651</v>
+        <v>90300</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,37 +925,35 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1968</v>
+        <v>4745</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Svarttjärnen (Svarttjärnen), Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>505022.9813479512</v>
+        <v>505060.2648977584</v>
       </c>
       <c r="R4" t="n">
-        <v>7018724.615566149</v>
+        <v>7018787.191973396</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1003,7 +1004,6 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1022,10 +1022,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111783071</v>
+        <v>111783769</v>
       </c>
       <c r="B5" t="n">
-        <v>90300</v>
+        <v>90665</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1034,25 +1034,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4745</v>
+        <v>1435</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Bitter taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum fennicum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(P.Karst.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1063,10 +1063,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>505060.2648977584</v>
+        <v>505036.7939151306</v>
       </c>
       <c r="R5" t="n">
-        <v>7018787.191973396</v>
+        <v>7018819.987804689</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1135,10 +1135,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111782750</v>
+        <v>111782876</v>
       </c>
       <c r="B6" t="n">
-        <v>82949</v>
+        <v>90651</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1151,21 +1151,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5589</v>
+        <v>1968</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1178,10 +1178,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>505007.618534557</v>
+        <v>505022.9813479512</v>
       </c>
       <c r="R6" t="n">
-        <v>7018756.52538473</v>
+        <v>7018724.615566149</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1251,10 +1251,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111814402</v>
+        <v>111814356</v>
       </c>
       <c r="B7" t="n">
-        <v>90651</v>
+        <v>90678</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1263,25 +1263,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1968</v>
+        <v>4366</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1291,10 +1291,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>505200.3682009591</v>
+        <v>505204.4099656619</v>
       </c>
       <c r="R7" t="n">
-        <v>7018764.927175661</v>
+        <v>7018772.129998797</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1367,10 +1367,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111814348</v>
+        <v>111814350</v>
       </c>
       <c r="B8" t="n">
-        <v>96370</v>
+        <v>89401</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1379,25 +1379,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>219847</v>
+        <v>1108</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1407,10 +1407,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>504944.9568800884</v>
+        <v>504984.8875472886</v>
       </c>
       <c r="R8" t="n">
-        <v>7018794.658574538</v>
+        <v>7018893.217038274</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1483,10 +1483,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111814411</v>
+        <v>111814417</v>
       </c>
       <c r="B9" t="n">
-        <v>96253</v>
+        <v>103288</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1499,21 +1499,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>504</v>
+        <v>221144</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>505014.8575873387</v>
+        <v>505110.448201828</v>
       </c>
       <c r="R9" t="n">
-        <v>7018735.397438973</v>
+        <v>7018666.73204405</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1599,10 +1599,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111814362</v>
+        <v>111814375</v>
       </c>
       <c r="B10" t="n">
-        <v>103288</v>
+        <v>96370</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1615,21 +1615,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>221144</v>
+        <v>219847</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>504958.3523041067</v>
+        <v>504999.9977373667</v>
       </c>
       <c r="R10" t="n">
-        <v>7018869.788911887</v>
+        <v>7018733.575208749</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1831,10 +1831,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111814415</v>
+        <v>111814432</v>
       </c>
       <c r="B12" t="n">
-        <v>56543</v>
+        <v>95674</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1843,25 +1843,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>103021</v>
+        <v>222741</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1871,10 +1871,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>505100.2035408606</v>
+        <v>505015.75484597</v>
       </c>
       <c r="R12" t="n">
-        <v>7018878.55609256</v>
+        <v>7018737.647699019</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1947,10 +1947,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111814428</v>
+        <v>111814395</v>
       </c>
       <c r="B13" t="n">
-        <v>90666</v>
+        <v>103288</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1963,21 +1963,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4364</v>
+        <v>221144</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2063,10 +2063,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111814417</v>
+        <v>111814388</v>
       </c>
       <c r="B14" t="n">
-        <v>103288</v>
+        <v>78578</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2075,25 +2075,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>221144</v>
+        <v>6458</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2103,10 +2103,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>505110.448201828</v>
+        <v>505182.7410700406</v>
       </c>
       <c r="R14" t="n">
-        <v>7018666.73204405</v>
+        <v>7018803.578552675</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2159,6 +2159,21 @@
       </c>
       <c r="AG14" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
@@ -2295,10 +2310,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111814356</v>
+        <v>111814415</v>
       </c>
       <c r="B16" t="n">
-        <v>90678</v>
+        <v>56543</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2307,25 +2322,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4366</v>
+        <v>103021</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2335,10 +2350,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>505204.4099656619</v>
+        <v>505100.2035408606</v>
       </c>
       <c r="R16" t="n">
-        <v>7018772.129998797</v>
+        <v>7018878.55609256</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2411,10 +2426,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111814388</v>
+        <v>111814359</v>
       </c>
       <c r="B17" t="n">
-        <v>78578</v>
+        <v>90300</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2427,21 +2442,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6458</v>
+        <v>4745</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2451,10 +2466,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>505182.7410700406</v>
+        <v>505073.4975346876</v>
       </c>
       <c r="R17" t="n">
-        <v>7018803.578552675</v>
+        <v>7018678.36784017</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2507,21 +2522,6 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
@@ -2542,10 +2542,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111814375</v>
+        <v>111814428</v>
       </c>
       <c r="B18" t="n">
-        <v>96370</v>
+        <v>90666</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2558,21 +2558,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>219847</v>
+        <v>4364</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2582,10 +2582,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>504999.9977373667</v>
+        <v>504987.8220338543</v>
       </c>
       <c r="R18" t="n">
-        <v>7018733.575208749</v>
+        <v>7018743.451279385</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2658,10 +2658,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111814434</v>
+        <v>111814362</v>
       </c>
       <c r="B19" t="n">
-        <v>96253</v>
+        <v>103288</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2674,21 +2674,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>504</v>
+        <v>221144</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2698,10 +2698,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>505012.6056710624</v>
+        <v>504958.3523041067</v>
       </c>
       <c r="R19" t="n">
-        <v>7018735.393927739</v>
+        <v>7018869.788911887</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2774,10 +2774,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111814395</v>
+        <v>111814434</v>
       </c>
       <c r="B20" t="n">
-        <v>103288</v>
+        <v>96253</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2790,21 +2790,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>221144</v>
+        <v>504</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2814,10 +2814,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>504987.8220338543</v>
+        <v>505012.6056710624</v>
       </c>
       <c r="R20" t="n">
-        <v>7018743.451279385</v>
+        <v>7018735.393927739</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2890,10 +2890,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111814359</v>
+        <v>111814351</v>
       </c>
       <c r="B21" t="n">
-        <v>90300</v>
+        <v>89845</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2902,25 +2902,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4745</v>
+        <v>1209</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2930,10 +2930,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>505073.4975346876</v>
+        <v>504984.8875472886</v>
       </c>
       <c r="R21" t="n">
-        <v>7018678.36784017</v>
+        <v>7018893.217038274</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3006,10 +3006,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111814350</v>
+        <v>111814402</v>
       </c>
       <c r="B22" t="n">
-        <v>89401</v>
+        <v>90651</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3022,21 +3022,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1108</v>
+        <v>1968</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3046,10 +3046,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>504984.8875472886</v>
+        <v>505200.3682009591</v>
       </c>
       <c r="R22" t="n">
-        <v>7018893.217038274</v>
+        <v>7018764.927175661</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3122,10 +3122,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111814351</v>
+        <v>111814411</v>
       </c>
       <c r="B23" t="n">
-        <v>89845</v>
+        <v>96253</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3134,25 +3134,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1209</v>
+        <v>504</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3162,10 +3162,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>504984.8875472886</v>
+        <v>505014.8575873387</v>
       </c>
       <c r="R23" t="n">
-        <v>7018893.217038274</v>
+        <v>7018735.397438973</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3238,10 +3238,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111814432</v>
+        <v>111814348</v>
       </c>
       <c r="B24" t="n">
-        <v>95674</v>
+        <v>96370</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3254,21 +3254,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>222741</v>
+        <v>219847</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3278,10 +3278,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>505015.75484597</v>
+        <v>504944.9568800884</v>
       </c>
       <c r="R24" t="n">
-        <v>7018737.647699019</v>
+        <v>7018794.658574538</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>

--- a/artfynd/A 67457-2019.xlsx
+++ b/artfynd/A 67457-2019.xlsx
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>504976.0557203053</v>
+        <v>504976</v>
       </c>
       <c r="R2" t="n">
-        <v>7018779.864305317</v>
+        <v>7018780</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -754,19 +754,9 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-08-23</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -836,10 +826,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>505007.618534557</v>
+        <v>505008</v>
       </c>
       <c r="R3" t="n">
-        <v>7018756.52538473</v>
+        <v>7018757</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -869,19 +859,9 @@
           <t>2023-08-30</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-08-30</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -909,10 +889,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111783071</v>
+        <v>111782876</v>
       </c>
       <c r="B4" t="n">
-        <v>90300</v>
+        <v>90651</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -925,35 +905,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4745</v>
+        <v>1968</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Svarttjärnen (Svarttjärnen), Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>505060.2648977584</v>
+        <v>505023</v>
       </c>
       <c r="R4" t="n">
-        <v>7018787.191973396</v>
+        <v>7018725</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -983,27 +965,18 @@
           <t>2023-08-30</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-08-30</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1022,10 +995,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111783769</v>
+        <v>111783071</v>
       </c>
       <c r="B5" t="n">
-        <v>90665</v>
+        <v>90300</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1034,25 +1007,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1435</v>
+        <v>4745</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Bitter taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum fennicum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1063,10 +1036,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>505036.7939151306</v>
+        <v>505060</v>
       </c>
       <c r="R5" t="n">
-        <v>7018819.987804689</v>
+        <v>7018787</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1096,19 +1069,9 @@
           <t>2023-08-30</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-08-30</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1135,10 +1098,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111782876</v>
+        <v>111783769</v>
       </c>
       <c r="B6" t="n">
-        <v>90651</v>
+        <v>90665</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1147,41 +1110,39 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1968</v>
+        <v>1435</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Bitter taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Hydnellum fennicum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>(P.Karst.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Svarttjärnen (Svarttjärnen), Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>505022.9813479512</v>
+        <v>505037</v>
       </c>
       <c r="R6" t="n">
-        <v>7018724.615566149</v>
+        <v>7018820</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1211,28 +1172,17 @@
           <t>2023-08-30</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-08-30</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1251,10 +1201,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111814356</v>
+        <v>111814388</v>
       </c>
       <c r="B7" t="n">
-        <v>90678</v>
+        <v>78578</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1263,25 +1213,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4366</v>
+        <v>6458</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1291,10 +1241,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>505204.4099656619</v>
+        <v>505183</v>
       </c>
       <c r="R7" t="n">
-        <v>7018772.129998797</v>
+        <v>7018804</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1324,21 +1274,11 @@
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
@@ -1347,6 +1287,21 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
@@ -1367,10 +1322,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111814350</v>
+        <v>111814428</v>
       </c>
       <c r="B8" t="n">
-        <v>89401</v>
+        <v>90666</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1379,25 +1334,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1108</v>
+        <v>4364</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1407,10 +1362,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>504984.8875472886</v>
+        <v>504988</v>
       </c>
       <c r="R8" t="n">
-        <v>7018893.217038274</v>
+        <v>7018743</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1440,19 +1395,9 @@
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-08-14</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1483,10 +1428,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111814417</v>
+        <v>111814415</v>
       </c>
       <c r="B9" t="n">
-        <v>103288</v>
+        <v>56543</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1495,25 +1440,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>221144</v>
+        <v>103021</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1523,10 +1468,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>505110.448201828</v>
+        <v>505100</v>
       </c>
       <c r="R9" t="n">
-        <v>7018666.73204405</v>
+        <v>7018879</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1556,19 +1501,9 @@
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-08-14</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1599,10 +1534,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111814375</v>
+        <v>111814417</v>
       </c>
       <c r="B10" t="n">
-        <v>96370</v>
+        <v>103288</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1615,21 +1550,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>219847</v>
+        <v>221144</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1639,10 +1574,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>504999.9977373667</v>
+        <v>505110</v>
       </c>
       <c r="R10" t="n">
-        <v>7018733.575208749</v>
+        <v>7018667</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1672,19 +1607,9 @@
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-08-14</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1715,7 +1640,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111814344</v>
+        <v>111814430</v>
       </c>
       <c r="B11" t="n">
         <v>103288</v>
@@ -1755,10 +1680,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>505070.3462143789</v>
+        <v>504988</v>
       </c>
       <c r="R11" t="n">
-        <v>7018677.46330901</v>
+        <v>7018743</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1788,19 +1713,9 @@
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-08-14</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1831,10 +1746,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111814432</v>
+        <v>111814350</v>
       </c>
       <c r="B12" t="n">
-        <v>95674</v>
+        <v>89401</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1843,25 +1758,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>222741</v>
+        <v>1108</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1871,10 +1786,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>505015.75484597</v>
+        <v>504985</v>
       </c>
       <c r="R12" t="n">
-        <v>7018737.647699019</v>
+        <v>7018893</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1904,19 +1819,9 @@
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-08-14</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1947,10 +1852,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111814395</v>
+        <v>111814359</v>
       </c>
       <c r="B13" t="n">
-        <v>103288</v>
+        <v>90300</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1959,25 +1864,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>221144</v>
+        <v>4745</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1987,10 +1892,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>504987.8220338543</v>
+        <v>505073</v>
       </c>
       <c r="R13" t="n">
-        <v>7018743.451279385</v>
+        <v>7018678</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2020,19 +1925,9 @@
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-08-14</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2063,10 +1958,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111814388</v>
+        <v>111814402</v>
       </c>
       <c r="B14" t="n">
-        <v>78578</v>
+        <v>90651</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2079,21 +1974,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6458</v>
+        <v>1968</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2103,10 +1998,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>505182.7410700406</v>
+        <v>505200</v>
       </c>
       <c r="R14" t="n">
-        <v>7018803.578552675</v>
+        <v>7018765</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2136,21 +2031,11 @@
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
@@ -2159,21 +2044,6 @@
       </c>
       <c r="AG14" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
@@ -2194,10 +2064,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111814369</v>
+        <v>111814344</v>
       </c>
       <c r="B15" t="n">
-        <v>96265</v>
+        <v>103288</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2210,21 +2080,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>219790</v>
+        <v>221144</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2234,10 +2104,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>504944.0561301867</v>
+        <v>505070</v>
       </c>
       <c r="R15" t="n">
-        <v>7018794.657189432</v>
+        <v>7018677</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2267,19 +2137,9 @@
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-08-14</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2310,10 +2170,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111814415</v>
+        <v>111814375</v>
       </c>
       <c r="B16" t="n">
-        <v>56543</v>
+        <v>96370</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2322,25 +2182,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>103021</v>
+        <v>219847</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2350,10 +2210,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>505100.2035408606</v>
+        <v>505000</v>
       </c>
       <c r="R16" t="n">
-        <v>7018878.55609256</v>
+        <v>7018734</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2383,19 +2243,9 @@
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-08-14</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2426,10 +2276,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111814359</v>
+        <v>111814348</v>
       </c>
       <c r="B17" t="n">
-        <v>90300</v>
+        <v>96370</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2438,25 +2288,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4745</v>
+        <v>219847</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2466,10 +2316,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>505073.4975346876</v>
+        <v>504945</v>
       </c>
       <c r="R17" t="n">
-        <v>7018678.36784017</v>
+        <v>7018795</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2499,19 +2349,9 @@
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-08-14</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2542,10 +2382,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111814428</v>
+        <v>111814411</v>
       </c>
       <c r="B18" t="n">
-        <v>90666</v>
+        <v>96253</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2558,21 +2398,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4364</v>
+        <v>504</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2582,10 +2422,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>504987.8220338543</v>
+        <v>505015</v>
       </c>
       <c r="R18" t="n">
-        <v>7018743.451279385</v>
+        <v>7018735</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2615,19 +2455,9 @@
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-08-14</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2658,10 +2488,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111814362</v>
+        <v>111814369</v>
       </c>
       <c r="B19" t="n">
-        <v>103288</v>
+        <v>96265</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2674,21 +2504,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>221144</v>
+        <v>219790</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2698,10 +2528,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>504958.3523041067</v>
+        <v>504944</v>
       </c>
       <c r="R19" t="n">
-        <v>7018869.788911887</v>
+        <v>7018795</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2731,19 +2561,9 @@
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-08-14</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2774,10 +2594,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111814434</v>
+        <v>111814362</v>
       </c>
       <c r="B20" t="n">
-        <v>96253</v>
+        <v>103288</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2790,21 +2610,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>504</v>
+        <v>221144</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2814,10 +2634,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>505012.6056710624</v>
+        <v>504958</v>
       </c>
       <c r="R20" t="n">
-        <v>7018735.393927739</v>
+        <v>7018870</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2847,19 +2667,9 @@
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-08-14</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2930,10 +2740,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>504984.8875472886</v>
+        <v>504985</v>
       </c>
       <c r="R21" t="n">
-        <v>7018893.217038274</v>
+        <v>7018893</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2963,19 +2773,9 @@
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-08-14</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3006,10 +2806,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111814402</v>
+        <v>111814432</v>
       </c>
       <c r="B22" t="n">
-        <v>90651</v>
+        <v>95674</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3018,25 +2818,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1968</v>
+        <v>222741</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3046,10 +2846,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>505200.3682009591</v>
+        <v>505016</v>
       </c>
       <c r="R22" t="n">
-        <v>7018764.927175661</v>
+        <v>7018738</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3079,19 +2879,9 @@
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-08-14</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3122,7 +2912,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111814411</v>
+        <v>111814434</v>
       </c>
       <c r="B23" t="n">
         <v>96253</v>
@@ -3162,10 +2952,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>505014.8575873387</v>
+        <v>505013</v>
       </c>
       <c r="R23" t="n">
-        <v>7018735.397438973</v>
+        <v>7018735</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3195,19 +2985,9 @@
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2023-08-14</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3238,10 +3018,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111814348</v>
+        <v>111814356</v>
       </c>
       <c r="B24" t="n">
-        <v>96370</v>
+        <v>90678</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3254,21 +3034,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>219847</v>
+        <v>4366</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3278,10 +3058,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>504944.9568800884</v>
+        <v>505204</v>
       </c>
       <c r="R24" t="n">
-        <v>7018794.658574538</v>
+        <v>7018772</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3311,19 +3091,9 @@
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2023-08-14</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD24" t="b">

--- a/artfynd/A 67457-2019.xlsx
+++ b/artfynd/A 67457-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111784168</v>
+        <v>111783769</v>
       </c>
       <c r="B2" t="n">
-        <v>90709</v>
+        <v>90665</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5448</v>
+        <v>1435</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Bitter taggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum fennicum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(P.Karst.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>504976</v>
+        <v>505037</v>
       </c>
       <c r="R2" t="n">
-        <v>7018780</v>
+        <v>7018820</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -751,12 +751,12 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-08-30</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-08-30</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -783,10 +783,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111782750</v>
+        <v>111783071</v>
       </c>
       <c r="B3" t="n">
-        <v>82949</v>
+        <v>90300</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -799,37 +799,35 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5589</v>
+        <v>4745</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Svarttjärnen (Svarttjärnen), Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>505008</v>
+        <v>505060</v>
       </c>
       <c r="R3" t="n">
-        <v>7018757</v>
+        <v>7018787</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -870,7 +868,6 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -995,10 +992,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111783071</v>
+        <v>111782750</v>
       </c>
       <c r="B5" t="n">
-        <v>90300</v>
+        <v>82949</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1011,35 +1008,37 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4745</v>
+        <v>5589</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Svarttjärnen (Svarttjärnen), Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>505060</v>
+        <v>505008</v>
       </c>
       <c r="R5" t="n">
-        <v>7018787</v>
+        <v>7018757</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1080,6 +1079,7 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1098,10 +1098,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111783769</v>
+        <v>111784168</v>
       </c>
       <c r="B6" t="n">
-        <v>90665</v>
+        <v>90709</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1110,25 +1110,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1435</v>
+        <v>5448</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bitter taggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum fennicum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1139,10 +1139,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>505037</v>
+        <v>504976</v>
       </c>
       <c r="R6" t="n">
-        <v>7018820</v>
+        <v>7018780</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1169,12 +1169,12 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-08-30</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-08-30</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1201,10 +1201,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111814388</v>
+        <v>111814362</v>
       </c>
       <c r="B7" t="n">
-        <v>78578</v>
+        <v>103288</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1213,25 +1213,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6458</v>
+        <v>221144</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1241,10 +1241,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>505183</v>
+        <v>504958</v>
       </c>
       <c r="R7" t="n">
-        <v>7018804</v>
+        <v>7018870</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1287,21 +1287,6 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
@@ -1322,10 +1307,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111814428</v>
+        <v>111814402</v>
       </c>
       <c r="B8" t="n">
-        <v>90666</v>
+        <v>90651</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1334,25 +1319,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4364</v>
+        <v>1968</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1362,10 +1347,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>504988</v>
+        <v>505200</v>
       </c>
       <c r="R8" t="n">
-        <v>7018743</v>
+        <v>7018765</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1428,10 +1413,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111814415</v>
+        <v>111814359</v>
       </c>
       <c r="B9" t="n">
-        <v>56543</v>
+        <v>90300</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1444,21 +1429,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>103021</v>
+        <v>4745</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1468,10 +1453,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>505100</v>
+        <v>505073</v>
       </c>
       <c r="R9" t="n">
-        <v>7018879</v>
+        <v>7018678</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1534,10 +1519,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111814417</v>
+        <v>111814348</v>
       </c>
       <c r="B10" t="n">
-        <v>103288</v>
+        <v>96370</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1550,21 +1535,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>221144</v>
+        <v>219847</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1574,10 +1559,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>505110</v>
+        <v>504945</v>
       </c>
       <c r="R10" t="n">
-        <v>7018667</v>
+        <v>7018795</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1640,10 +1625,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111814430</v>
+        <v>111814356</v>
       </c>
       <c r="B11" t="n">
-        <v>103288</v>
+        <v>90678</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1656,21 +1641,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>221144</v>
+        <v>4366</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1680,10 +1665,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>504988</v>
+        <v>505204</v>
       </c>
       <c r="R11" t="n">
-        <v>7018743</v>
+        <v>7018772</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1746,10 +1731,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111814350</v>
+        <v>111814388</v>
       </c>
       <c r="B12" t="n">
-        <v>89401</v>
+        <v>78578</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1762,21 +1747,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1108</v>
+        <v>6458</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1786,10 +1771,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>504985</v>
+        <v>505183</v>
       </c>
       <c r="R12" t="n">
-        <v>7018893</v>
+        <v>7018804</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1832,6 +1817,21 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
@@ -1852,10 +1852,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111814359</v>
+        <v>111814417</v>
       </c>
       <c r="B13" t="n">
-        <v>90300</v>
+        <v>103288</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1864,25 +1864,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4745</v>
+        <v>221144</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1892,10 +1892,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>505073</v>
+        <v>505110</v>
       </c>
       <c r="R13" t="n">
-        <v>7018678</v>
+        <v>7018667</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1958,10 +1958,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111814402</v>
+        <v>111814395</v>
       </c>
       <c r="B14" t="n">
-        <v>90651</v>
+        <v>103288</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1970,25 +1970,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1968</v>
+        <v>221144</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1998,10 +1998,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>505200</v>
+        <v>504988</v>
       </c>
       <c r="R14" t="n">
-        <v>7018765</v>
+        <v>7018743</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2064,10 +2064,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111814344</v>
+        <v>111814428</v>
       </c>
       <c r="B15" t="n">
-        <v>103288</v>
+        <v>90666</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2080,21 +2080,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>221144</v>
+        <v>4364</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2104,10 +2104,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>505070</v>
+        <v>504988</v>
       </c>
       <c r="R15" t="n">
-        <v>7018677</v>
+        <v>7018743</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2170,10 +2170,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111814375</v>
+        <v>111814351</v>
       </c>
       <c r="B16" t="n">
-        <v>96370</v>
+        <v>89845</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2182,25 +2182,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>219847</v>
+        <v>1209</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2210,10 +2210,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>505000</v>
+        <v>504985</v>
       </c>
       <c r="R16" t="n">
-        <v>7018734</v>
+        <v>7018893</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2276,10 +2276,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111814348</v>
+        <v>111814415</v>
       </c>
       <c r="B17" t="n">
-        <v>96370</v>
+        <v>56543</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2288,25 +2288,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>219847</v>
+        <v>103021</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2316,10 +2316,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>504945</v>
+        <v>505100</v>
       </c>
       <c r="R17" t="n">
-        <v>7018795</v>
+        <v>7018879</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2382,10 +2382,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111814411</v>
+        <v>111814432</v>
       </c>
       <c r="B18" t="n">
-        <v>96253</v>
+        <v>95674</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2398,21 +2398,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>504</v>
+        <v>222741</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>505015</v>
+        <v>505016</v>
       </c>
       <c r="R18" t="n">
-        <v>7018735</v>
+        <v>7018738</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2488,10 +2488,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111814369</v>
+        <v>111814344</v>
       </c>
       <c r="B19" t="n">
-        <v>96265</v>
+        <v>103288</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2504,21 +2504,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>219790</v>
+        <v>221144</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2528,10 +2528,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>504944</v>
+        <v>505070</v>
       </c>
       <c r="R19" t="n">
-        <v>7018795</v>
+        <v>7018677</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2594,10 +2594,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111814362</v>
+        <v>111814434</v>
       </c>
       <c r="B20" t="n">
-        <v>103288</v>
+        <v>96253</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2610,21 +2610,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>221144</v>
+        <v>504</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2634,10 +2634,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>504958</v>
+        <v>505013</v>
       </c>
       <c r="R20" t="n">
-        <v>7018870</v>
+        <v>7018735</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2700,10 +2700,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111814351</v>
+        <v>111814375</v>
       </c>
       <c r="B21" t="n">
-        <v>89845</v>
+        <v>96370</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2712,25 +2712,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1209</v>
+        <v>219847</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2740,10 +2740,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>504985</v>
+        <v>505000</v>
       </c>
       <c r="R21" t="n">
-        <v>7018893</v>
+        <v>7018734</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2806,10 +2806,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111814432</v>
+        <v>111814350</v>
       </c>
       <c r="B22" t="n">
-        <v>95674</v>
+        <v>89401</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2818,25 +2818,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>222741</v>
+        <v>1108</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2846,10 +2846,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>505016</v>
+        <v>504985</v>
       </c>
       <c r="R22" t="n">
-        <v>7018738</v>
+        <v>7018893</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2912,10 +2912,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111814434</v>
+        <v>111814369</v>
       </c>
       <c r="B23" t="n">
-        <v>96253</v>
+        <v>96265</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2928,21 +2928,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>504</v>
+        <v>219790</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2952,10 +2952,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>505013</v>
+        <v>504944</v>
       </c>
       <c r="R23" t="n">
-        <v>7018735</v>
+        <v>7018795</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3018,10 +3018,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111814356</v>
+        <v>111814411</v>
       </c>
       <c r="B24" t="n">
-        <v>90678</v>
+        <v>96253</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3034,21 +3034,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4366</v>
+        <v>504</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3058,10 +3058,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>505204</v>
+        <v>505015</v>
       </c>
       <c r="R24" t="n">
-        <v>7018772</v>
+        <v>7018735</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
